--- a/vh_Manual/VBAHaskell_reference.xlsx
+++ b/vh_Manual/VBAHaskell_reference.xlsx
@@ -36,6 +36,8 @@
     <definedName name="_applyFun2by2">Haskell_1_Core!$B$216</definedName>
     <definedName name="_assignVar">Haskell_2_stdFun!$B$1</definedName>
     <definedName name="_bernoulli_dist">misc_random!$B$51</definedName>
+    <definedName name="_binary_less">Haskell_5_sort!$B$235</definedName>
+    <definedName name="_binary_less_dic">Haskell_5_sort!$B$241</definedName>
     <definedName name="_bind1st">Haskell_1_Core!$B$94</definedName>
     <definedName name="_bind2nd">Haskell_1_Core!$B$102</definedName>
     <definedName name="_capacity" localSheetId="8">vh_pipe!#REF!</definedName>
@@ -173,7 +175,7 @@
     <definedName name="_mapF_imple">Haskell_0_declare!$B$22</definedName>
     <definedName name="_mapF_swap">Haskell_1_Core!$B$144</definedName>
     <definedName name="_maskVar">Haskell_2_stdFun!$B$156</definedName>
-    <definedName name="_math">Index!$A$300</definedName>
+    <definedName name="_math">Index!$A$304</definedName>
     <definedName name="_matrix_op">Index!$A$135</definedName>
     <definedName name="_max_fun">Haskell_2_stdFun!$B$222</definedName>
     <definedName name="_min_fun">Haskell_2_stdFun!$B$216</definedName>
@@ -260,7 +262,7 @@
     <definedName name="_push_n">vh_stdvec!$B$181</definedName>
     <definedName name="_random_iota">misc_random!$B$74</definedName>
     <definedName name="_random_shuffle">misc_random!$B$82</definedName>
-    <definedName name="_randoms">Index!$A$290</definedName>
+    <definedName name="_randoms">Index!$A$294</definedName>
     <definedName name="_repeat">Haskell_4_vector!$B$24</definedName>
     <definedName name="_repeat_imple">Haskell_0_declare!$B$185</definedName>
     <definedName name="_repeat_while">Haskell_1_Core!$B$261</definedName>
@@ -312,7 +314,7 @@
     <definedName name="_splitStr2Funs">misc_utility!$B$259</definedName>
     <definedName name="_stdfun">Index!$A$74</definedName>
     <definedName name="_stdsort">Haskell_0_declare!$B$159</definedName>
-    <definedName name="_stdvec">Index!$A$208</definedName>
+    <definedName name="_stdvec">Index!$A$212</definedName>
     <definedName name="_str_cat">Haskell_2_stdFun!$B$270</definedName>
     <definedName name="_str_left">Haskell_2_stdFun!$B$252</definedName>
     <definedName name="_str_len">Haskell_2_stdFun!$B$246</definedName>
@@ -332,6 +334,8 @@
     <definedName name="_swap2nd">Haskell_1_Core!$B$118</definedName>
     <definedName name="_swapVariant">Haskell_0_declare!$B$197</definedName>
     <definedName name="_tailN">Haskell_4_vector!$B$93</definedName>
+    <definedName name="_text_less">Haskell_5_sort!$B$247</definedName>
+    <definedName name="_text_less_dic">Haskell_5_sort!$B$253</definedName>
     <definedName name="_transpose">Haskell_4_vector!$B$423</definedName>
     <definedName name="_unbind_invoke">Haskell_0_declare!$B$15</definedName>
     <definedName name="_uniform_int_dist">misc_random!$B$16</definedName>
@@ -339,7 +343,7 @@
     <definedName name="_unzip">Haskell_4_vector!$B$522</definedName>
     <definedName name="_upper_bound">Haskell_5_sort!$B$115</definedName>
     <definedName name="_upper_bound_pred">Haskell_5_sort!$B$132</definedName>
-    <definedName name="_utilities">Index!$A$246</definedName>
+    <definedName name="_utilities">Index!$A$250</definedName>
     <definedName name="_val" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_val">vh_stdvec!$B$150</definedName>
     <definedName name="_vba_home">Index!$A$1</definedName>
@@ -351,7 +355,7 @@
     <definedName name="_vec_printS" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_vec_printS">vh_stdvec!$B$121</definedName>
     <definedName name="_vector">Haskell_4_vector!$B$104</definedName>
-    <definedName name="_vh_pipe">Index!$A$236</definedName>
+    <definedName name="_vh_pipe">Index!$A$240</definedName>
     <definedName name="_yield_0">Haskell_1_Core!$B$34</definedName>
     <definedName name="_yield_1">Haskell_1_Core!$B$41</definedName>
     <definedName name="_yield_2">Haskell_1_Core!$B$48</definedName>
@@ -366,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="2058">
   <si>
     <t>Dimension</t>
   </si>
@@ -25085,6 +25089,266 @@
   <si>
     <t>述語による最良値位置検索（find_best_pred関数内部で使用）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語 文字列をvbBinaryCompareで比較</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_binary_less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語 辞書式binary_less</t>
+  </si>
+  <si>
+    <t>述語 辞書式binary_less</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary_less_dic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ByRef a As Variant, ByRef b As Variant) As Variant</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_binary_less_dic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語 文字列をvbTextCompareで比較</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text_less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ByRef a As Variant, ByRef b As Variant) As Variant</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_text_less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語 辞書式text_less</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text_less_dic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ByRef a As Variant, ByRef b As Variant) As Variant</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_text_less_dic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary_less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ByRef a As Variant, ByRef b As Variant) As Variant</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>binary_less</t>
+  </si>
+  <si>
+    <t>binary_less_dic</t>
+  </si>
+  <si>
+    <t>text_less</t>
+  </si>
+  <si>
+    <t>text_less_dic</t>
   </si>
 </sst>
 </file>
@@ -28002,7 +28266,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -30676,199 +30940,199 @@
         <v>894</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="32"/>
+    <row r="207" spans="1:4" ht="15" customHeight="1">
+      <c r="A207" s="66" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D207" s="41" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="66" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D208" s="41" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1">
+      <c r="A209" s="66" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D209" s="41" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1">
+      <c r="A210" s="66" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D210" s="41" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="32"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1">
+      <c r="A212" s="25" t="s">
         <v>1718</v>
       </c>
-      <c r="B208" s="26"/>
-      <c r="C208" s="42"/>
-      <c r="D208" s="43"/>
-    </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1">
-      <c r="A209" s="6" t="s">
+      <c r="B212" s="26"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="43"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1">
+      <c r="A213" s="6" t="s">
         <v>1699</v>
       </c>
-      <c r="B209" s="24" t="s">
+      <c r="B213" s="24" t="s">
         <v>1685</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>1686</v>
       </c>
-      <c r="D209" s="38" t="s">
+      <c r="D213" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1">
-      <c r="A210" s="8" t="s">
+    <row r="214" spans="1:5" ht="15" customHeight="1">
+      <c r="A214" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B214" s="18" t="s">
         <v>1722</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C214" s="9" t="s">
         <v>1639</v>
       </c>
-      <c r="D210" s="38" t="s">
+      <c r="D214" s="38" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1">
-      <c r="A211" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="18" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D211" s="38" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1">
-      <c r="A212" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="18" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1">
-      <c r="A213" s="66" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D213" s="41" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1">
-      <c r="A214" s="66" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B214" s="18" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C214" s="31" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D214" s="41" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E214"/>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D215" s="41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D215" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>1693</v>
+        <v>1640</v>
       </c>
       <c r="D216" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1">
-      <c r="A217" s="8" t="s">
-        <v>1</v>
+      <c r="A217" s="66" t="s">
+        <v>1708</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>1593</v>
+        <v>1709</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>1723</v>
       </c>
       <c r="D217" s="41" t="s">
         <v>1687</v>
       </c>
+      <c r="E217"/>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1">
-      <c r="A218" s="8" t="s">
-        <v>1</v>
+      <c r="A218" s="66" t="s">
+        <v>1149</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>1696</v>
+        <v>1735</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>1595</v>
+        <v>1736</v>
       </c>
       <c r="D218" s="41" t="s">
         <v>1687</v>
       </c>
+      <c r="E218"/>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1">
-      <c r="A219" s="66" t="s">
-        <v>1698</v>
+      <c r="A219" s="8" t="s">
+        <v>1700</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>1669</v>
+        <v>1692</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>1691</v>
       </c>
       <c r="D219" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1">
-      <c r="A220" s="66" t="s">
-        <v>1698</v>
+      <c r="A220" s="8" t="s">
+        <v>1700</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C220" s="31" t="s">
-        <v>1642</v>
+        <v>1694</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>1693</v>
       </c>
       <c r="D220" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1">
-      <c r="A221" s="66" t="s">
-        <v>1698</v>
+      <c r="A221" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>1577</v>
+        <v>1695</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>1593</v>
       </c>
       <c r="D221" s="41" t="s">
         <v>1687</v>
@@ -30876,129 +31140,125 @@
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1">
       <c r="A222" s="8" t="s">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>1641</v>
+        <v>1595</v>
       </c>
       <c r="D222" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1">
-      <c r="A223" s="8" t="s">
-        <v>1700</v>
+      <c r="A223" s="66" t="s">
+        <v>1698</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>1651</v>
+        <v>140</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>1669</v>
       </c>
       <c r="D223" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1">
-      <c r="A224" s="8" t="s">
-        <v>1</v>
+      <c r="A224" s="66" t="s">
+        <v>1698</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="C224" s="31" t="s">
-        <v>1744</v>
+        <v>1642</v>
       </c>
       <c r="D224" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="66" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D225" s="41" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1">
+      <c r="A226" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C226" s="31" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D226" s="41" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15" customHeight="1">
+      <c r="A227" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D227" s="41" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15" customHeight="1">
+      <c r="A228" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B228" s="18" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C228" s="31" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D228" s="41" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15" customHeight="1">
+      <c r="A229" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="18" t="s">
         <v>1705</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="D225" s="38" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1">
-      <c r="A226" s="66" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D226" s="38" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E226"/>
-    </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1">
-      <c r="A227" s="66" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D227" s="38" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E227"/>
-    </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1">
-      <c r="A228" s="66" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D228" s="38" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E228"/>
-    </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1">
-      <c r="A229" s="66" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B229" s="18" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>1589</v>
       </c>
       <c r="D229" s="38" t="s">
         <v>1687</v>
       </c>
-      <c r="E229"/>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1">
       <c r="A230" s="66" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="D230" s="38" t="s">
         <v>1687</v>
@@ -31007,162 +31267,166 @@
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1">
       <c r="A231" s="66" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B231" s="24" t="s">
-        <v>2018</v>
+        <v>1708</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>1710</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>2019</v>
+        <v>1585</v>
       </c>
       <c r="D231" s="38" t="s">
-        <v>893</v>
+        <v>1687</v>
       </c>
       <c r="E231"/>
     </row>
-    <row r="232" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A232" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="131" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C232" s="127" t="s">
-        <v>1746</v>
+    <row r="232" spans="1:6" ht="15" customHeight="1">
+      <c r="A232" s="66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>1587</v>
       </c>
       <c r="D232" s="38" t="s">
         <v>1687</v>
       </c>
-      <c r="E232" s="128"/>
-      <c r="F232" s="129"/>
-    </row>
-    <row r="233" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A233" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="131" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C233" s="127" t="s">
-        <v>1748</v>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:6" ht="15" customHeight="1">
+      <c r="A233" s="66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>1589</v>
       </c>
       <c r="D233" s="38" t="s">
         <v>1687</v>
       </c>
-      <c r="E233" s="128"/>
-      <c r="F233" s="129"/>
-    </row>
-    <row r="234" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A234" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="131" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C234" s="127" t="s">
-        <v>1750</v>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:6" ht="15" customHeight="1">
+      <c r="A234" s="66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>1591</v>
       </c>
       <c r="D234" s="38" t="s">
         <v>1687</v>
       </c>
-      <c r="E234" s="128"/>
-      <c r="F234" s="129"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="32"/>
-    </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1">
-      <c r="A236" s="27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B236" s="26"/>
-      <c r="C236" s="42"/>
-      <c r="D236" s="43"/>
-    </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1">
-      <c r="A237" s="8" t="s">
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1">
+      <c r="A235" s="66" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B235" s="24" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D235" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A236" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="18" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C237" s="33" t="s">
-        <v>1797</v>
+      <c r="B236" s="131" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C236" s="127" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D236" s="38" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E236" s="128"/>
+      <c r="F236" s="129"/>
+    </row>
+    <row r="237" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A237" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="131" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C237" s="127" t="s">
+        <v>1748</v>
       </c>
       <c r="D237" s="38" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1">
-      <c r="A238" s="8" t="s">
+      <c r="E237" s="128"/>
+      <c r="F237" s="129"/>
+    </row>
+    <row r="238" spans="1:6" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A238" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B238" s="18" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>1776</v>
+      <c r="B238" s="131" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C238" s="127" t="s">
+        <v>1750</v>
       </c>
       <c r="D238" s="38" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1">
-      <c r="A239" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D239" s="38" t="s">
-        <v>1687</v>
-      </c>
+      <c r="E238" s="128"/>
+      <c r="F238" s="129"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="32"/>
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1">
-      <c r="A240" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D240" s="41" t="s">
-        <v>1687</v>
-      </c>
+      <c r="A240" s="27" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B240" s="26"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="43"/>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="8" t="s">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D241" s="41" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C241" s="33" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D241" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="8" t="s">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>1801</v>
+        <v>1775</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D242" s="41" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D242" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -31171,12 +31435,12 @@
         <v>1</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D243" s="41" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D243" s="38" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -31185,98 +31449,98 @@
         <v>1</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D244" s="41" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="32"/>
+    <row r="245" spans="1:4" ht="15" customHeight="1">
+      <c r="A245" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D245" s="41" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
-      <c r="A246" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="B246" s="26"/>
-      <c r="C246" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D246" s="32"/>
+      <c r="A246" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D246" s="41" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B247" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="C247" s="33" t="s">
-        <v>876</v>
-      </c>
-      <c r="D247" s="69" t="s">
-        <v>893</v>
+      <c r="B247" s="18" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="65" t="s">
-        <v>862</v>
-      </c>
-      <c r="C248" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D248" s="69" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
-      <c r="A249" s="8" t="s">
+      <c r="B248" s="18" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D248" s="41" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="32"/>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1">
+      <c r="A250" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="B250" s="26"/>
+      <c r="C250" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D250" s="32"/>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1">
+      <c r="A251" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="65" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C249" s="31" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D249" s="69" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
-      <c r="A250" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C250" s="31" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D250" s="69" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
-      <c r="A251" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C251" s="31" t="s">
-        <v>877</v>
-      </c>
-      <c r="D251" s="38" t="s">
+      <c r="B251" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C251" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="D251" s="69" t="s">
         <v>893</v>
       </c>
     </row>
@@ -31284,13 +31548,13 @@
       <c r="A252" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B252" s="18" t="s">
-        <v>1539</v>
+      <c r="B252" s="65" t="s">
+        <v>862</v>
       </c>
       <c r="C252" s="31" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D252" s="38" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D252" s="69" t="s">
         <v>893</v>
       </c>
     </row>
@@ -31298,13 +31562,13 @@
       <c r="A253" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B253" s="18" t="s">
-        <v>286</v>
+      <c r="B253" s="65" t="s">
+        <v>1132</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="D253" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D253" s="69" t="s">
         <v>893</v>
       </c>
     </row>
@@ -31313,12 +31577,12 @@
         <v>1</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>287</v>
+        <v>1505</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="D254" s="38" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D254" s="69" t="s">
         <v>893</v>
       </c>
     </row>
@@ -31327,10 +31591,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>893</v>
@@ -31340,11 +31604,11 @@
       <c r="A256" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B256" s="24" t="s">
-        <v>1907</v>
+      <c r="B256" s="18" t="s">
+        <v>1539</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>1908</v>
+        <v>1540</v>
       </c>
       <c r="D256" s="38" t="s">
         <v>893</v>
@@ -31355,10 +31619,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>1537</v>
+        <v>286</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>1538</v>
+        <v>878</v>
       </c>
       <c r="D257" s="38" t="s">
         <v>893</v>
@@ -31369,10 +31633,10 @@
         <v>1</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>1837</v>
+        <v>287</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>1838</v>
+        <v>879</v>
       </c>
       <c r="D258" s="38" t="s">
         <v>893</v>
@@ -31383,27 +31647,27 @@
         <v>1</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>789</v>
+        <v>288</v>
+      </c>
+      <c r="C259" s="31" t="s">
+        <v>880</v>
       </c>
       <c r="D259" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>385</v>
+      <c r="B260" s="24" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C260" s="31" t="s">
+        <v>1908</v>
       </c>
       <c r="D260" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
@@ -31411,13 +31675,13 @@
         <v>1</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>294</v>
+        <v>1537</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>1972</v>
+        <v>1538</v>
       </c>
       <c r="D261" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
@@ -31425,13 +31689,13 @@
         <v>1</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>386</v>
+        <v>1837</v>
+      </c>
+      <c r="C262" s="31" t="s">
+        <v>1838</v>
       </c>
       <c r="D262" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
@@ -31439,10 +31703,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C263" s="31" t="s">
-        <v>1972</v>
+        <v>790</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>894</v>
@@ -31453,10 +31717,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C264" s="31" t="s">
-        <v>1973</v>
+        <v>293</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="D264" s="38" t="s">
         <v>894</v>
@@ -31467,100 +31731,104 @@
         <v>1</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C265" s="31" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D265" s="38" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
-      <c r="A266" s="19" t="s">
-        <v>3</v>
+      <c r="A266" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C266" s="31" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D266" s="38"/>
+        <v>295</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D266" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D267" s="38"/>
+        <v>1972</v>
+      </c>
+      <c r="D267" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
-      <c r="A268" s="19" t="s">
-        <v>3</v>
+      <c r="A268" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C268" s="31" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D268" s="38"/>
+        <v>1973</v>
+      </c>
+      <c r="D268" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D269" s="38"/>
+        <v>1974</v>
+      </c>
+      <c r="D269" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
-      <c r="A270" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D270" s="38" t="s">
-        <v>894</v>
-      </c>
+      <c r="A270" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C270" s="31" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D270" s="38"/>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>1843</v>
+        <v>300</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>894</v>
-      </c>
+        <v>1976</v>
+      </c>
+      <c r="D271" s="38"/>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="C272" s="31" t="s">
+        <v>1977</v>
       </c>
       <c r="D272" s="38"/>
     </row>
@@ -31569,90 +31837,88 @@
         <v>1</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D273" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C273" s="31" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D273" s="38"/>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1">
+      <c r="A274" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D274" s="38" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
-      <c r="A274" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D274" s="38"/>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B275" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>308</v>
+      <c r="B275" s="18" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>1844</v>
       </c>
       <c r="D275" s="38" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
-      <c r="A276" s="8" t="s">
-        <v>1</v>
+      <c r="A276" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D276" s="38" t="s">
-        <v>894</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D276" s="38"/>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D277" s="38"/>
+        <v>308</v>
+      </c>
+      <c r="D277" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
-      <c r="A278" s="8" t="s">
-        <v>1</v>
+      <c r="A278" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>1769</v>
+        <v>309</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D278" s="38" t="s">
-        <v>894</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D278" s="38"/>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="18" t="s">
-        <v>1772</v>
+      <c r="B279" s="24" t="s">
+        <v>1547</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>1771</v>
+        <v>308</v>
       </c>
       <c r="D279" s="38" t="s">
         <v>894</v>
@@ -31663,13 +31929,13 @@
         <v>1</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C280" s="31" t="s">
-        <v>1853</v>
+        <v>311</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1851</v>
+        <v>894</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
@@ -31677,72 +31943,78 @@
         <v>1</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C281" s="31" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D281" s="38" t="s">
-        <v>1851</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D281" s="38"/>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D282" s="38"/>
+        <v>1770</v>
+      </c>
+      <c r="D282" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D283" s="38"/>
+        <v>1771</v>
+      </c>
+      <c r="D283" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D284" s="38"/>
+        <v>1850</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D285" s="38"/>
+        <v>1855</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>387</v>
+        <v>1773</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>1774</v>
       </c>
       <c r="D286" s="38"/>
     </row>
@@ -31751,10 +32023,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>922</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>810</v>
+        <v>1775</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>1776</v>
       </c>
       <c r="D287" s="38"/>
     </row>
@@ -31763,38 +32035,46 @@
         <v>1</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>1859</v>
+        <v>1885</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>1884</v>
       </c>
       <c r="D288" s="38"/>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="44"/>
+    <row r="289" spans="1:4" ht="15" customHeight="1">
+      <c r="A289" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D289" s="38"/>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
-      <c r="A290" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="B290" s="26"/>
-      <c r="C290" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D290" s="44"/>
+      <c r="A290" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D290" s="38"/>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B291" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>269</v>
+      <c r="B291" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>810</v>
       </c>
       <c r="D291" s="38"/>
     </row>
@@ -31802,67 +32082,51 @@
       <c r="A292" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B292" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
-      <c r="A293" s="8" t="s">
+      <c r="B292" s="18" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D292" s="38"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="44"/>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1">
+      <c r="A294" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="B294" s="26"/>
+      <c r="C294" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D294" s="44"/>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1">
+      <c r="A295" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B293" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
-      <c r="A294" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B294" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
-      <c r="A295" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B295" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>894</v>
-      </c>
+      <c r="B295" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D295" s="38"/>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B296" s="18" t="s">
-        <v>274</v>
+      <c r="B296" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D296" s="38" t="s">
         <v>894</v>
@@ -31873,133 +32137,133 @@
         <v>1</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D297" s="38"/>
+        <v>280</v>
+      </c>
+      <c r="D297" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B298" s="18" t="s">
-        <v>277</v>
+      <c r="B298" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D298" s="38" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="D299" s="44"/>
+    <row r="299" spans="1:4" ht="15" customHeight="1">
+      <c r="A299" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
-      <c r="A300" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="B300" s="26"/>
-      <c r="C300" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D300" s="44"/>
+      <c r="A300" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B301" s="23" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>894</v>
-      </c>
+      <c r="B301" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D301" s="38"/>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B302" s="23" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>1945</v>
+      <c r="B302" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="D302" s="38" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
-      <c r="A303" s="6" t="s">
+    <row r="303" spans="1:4">
+      <c r="D303" s="44"/>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="A304" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="B304" s="26"/>
+      <c r="C304" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D304" s="44"/>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="A305" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B303" s="23" t="s">
-        <v>753</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D303" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
-      <c r="A304" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
-      <c r="A305" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>755</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>260</v>
+      <c r="B305" s="23" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>1943</v>
       </c>
       <c r="D305" s="38" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1">
-      <c r="A306" s="8" t="s">
+      <c r="A306" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B306" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>262</v>
+      <c r="B306" s="23" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>1945</v>
       </c>
       <c r="D306" s="38" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1">
-      <c r="A307" s="8" t="s">
+      <c r="A307" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B307" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C307" s="9" t="s">
-        <v>264</v>
+      <c r="B307" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="D307" s="38" t="s">
         <v>894</v>
@@ -32009,23 +32273,25 @@
       <c r="A308" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B308" s="18" t="s">
-        <v>265</v>
+      <c r="B308" s="24" t="s">
+        <v>754</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D308" s="38"/>
+        <v>259</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="A309" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>267</v>
+      <c r="B309" s="24" t="s">
+        <v>755</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>710</v>
+        <v>260</v>
       </c>
       <c r="D309" s="38" t="s">
         <v>894</v>
@@ -32036,10 +32302,10 @@
         <v>1</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>738</v>
+        <v>261</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>894</v>
@@ -32050,10 +32316,10 @@
         <v>1</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>740</v>
+        <v>263</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>713</v>
+        <v>264</v>
       </c>
       <c r="D311" s="38" t="s">
         <v>894</v>
@@ -32064,24 +32330,22 @@
         <v>1</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>741</v>
+        <v>265</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="D312" s="38" t="s">
-        <v>894</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D312" s="38"/>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1">
       <c r="A313" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>742</v>
+        <v>267</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D313" s="38" t="s">
         <v>894</v>
@@ -32092,10 +32356,10 @@
         <v>1</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D314" s="38" t="s">
         <v>894</v>
@@ -32106,10 +32370,10 @@
         <v>1</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D315" s="38" t="s">
         <v>894</v>
@@ -32120,10 +32384,10 @@
         <v>1</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D316" s="38" t="s">
         <v>894</v>
@@ -32134,10 +32398,10 @@
         <v>1</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D317" s="38" t="s">
         <v>894</v>
@@ -32148,10 +32412,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D318" s="38" t="s">
         <v>894</v>
@@ -32162,10 +32426,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D319" s="38" t="s">
         <v>894</v>
@@ -32176,12 +32440,68 @@
         <v>1</v>
       </c>
       <c r="B320" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D320" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1">
+      <c r="A321" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D321" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" customHeight="1">
+      <c r="A322" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D322" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" customHeight="1">
+      <c r="A323" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D323" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" customHeight="1">
+      <c r="A324" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="C320" s="9" t="s">
+      <c r="C324" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D320" s="38" t="s">
+      <c r="D324" s="38" t="s">
         <v>894</v>
       </c>
     </row>
@@ -32208,9 +32528,9 @@
     <hyperlink ref="C129" r:id="rId3" display="https://github.com/mYmd/VBA/blob/master/Haskell_3_printM.bas"/>
     <hyperlink ref="C135" r:id="rId4" display="https://github.com/mYmd/VBA/blob/master/Haskell_4_vector.bas"/>
     <hyperlink ref="C188" r:id="rId5" display="https://github.com/mYmd/VBA/blob/master/Haskell_5_sort.bas"/>
-    <hyperlink ref="C300" r:id="rId6" display="https://github.com/mYmd/VBA/blob/master/misc_math.bas"/>
-    <hyperlink ref="C290" r:id="rId7" display="https://github.com/mYmd/VBA/blob/master/misc_random.bas"/>
-    <hyperlink ref="C246" r:id="rId8" display="https://github.com/mYmd/VBA/blob/master/misc_utility"/>
+    <hyperlink ref="C304" r:id="rId6" display="https://github.com/mYmd/VBA/blob/master/misc_math.bas"/>
+    <hyperlink ref="C294" r:id="rId7" display="https://github.com/mYmd/VBA/blob/master/misc_random.bas"/>
+    <hyperlink ref="C250" r:id="rId8" display="https://github.com/mYmd/VBA/blob/master/misc_utility"/>
     <hyperlink ref="B26" location="_moveVariant" display="moveVariant"/>
     <hyperlink ref="B27" location="_ph_0" display="ph_0"/>
     <hyperlink ref="B28" location="_ph_1" display="ph_1"/>
@@ -32361,142 +32681,146 @@
     <hyperlink ref="B198" location="_equal_range_pred" display="_equal_range_pred"/>
     <hyperlink ref="B199" location="_partition_points" display="_partition_points"/>
     <hyperlink ref="B200" location="_partition_points_pred" display="_partition_points_pred"/>
-    <hyperlink ref="B303" location="_sin_fun" display="_sin_fun"/>
-    <hyperlink ref="B304" location="_cos_fun" display="_cos_fun"/>
-    <hyperlink ref="B305" location="_pow_fun" display="_pow_fun"/>
-    <hyperlink ref="B306" location="_make_polyCoef" display="_make_polyCoef"/>
-    <hyperlink ref="B307" location="_newton_method" display="_newton_method"/>
-    <hyperlink ref="B308" location="_integral_simpson" display="_integral_simpson"/>
-    <hyperlink ref="B309" location="_make_complex" display="_make_complex"/>
-    <hyperlink ref="B310" location="_make_complex_polar" display="_make_complex_polar"/>
-    <hyperlink ref="B311" location="_show_complex" display="_show_complex"/>
-    <hyperlink ref="B312" location="_show_complex_polar" display="_show_complex_polar"/>
-    <hyperlink ref="B320" location="_complex_arg" display="_complex_arg"/>
-    <hyperlink ref="B319" location="_complex_abs" display="_complex_abs"/>
-    <hyperlink ref="B318" location="_complex_abs2" display="_complex_abs2"/>
-    <hyperlink ref="B317" location="_complex_cnj" display="_complex_cnj"/>
-    <hyperlink ref="B316" location="_complex_divide" display="_complex_divide"/>
-    <hyperlink ref="B315" location="_complex_mult" display="_complex_mult"/>
-    <hyperlink ref="B314" location="_complex_minus" display="_complex_minus"/>
-    <hyperlink ref="B313" location="_complex_add" display="_complex_add"/>
-    <hyperlink ref="B291" location="_seed_Engine" display="_seed_Engine"/>
-    <hyperlink ref="B292" location="_uniform_int_dist" display="_uniform_int_dist"/>
-    <hyperlink ref="B293" location="_uniform_real_dist" display="_uniform_real_dist"/>
-    <hyperlink ref="B294" location="_normal_dist" display="_normal_dist"/>
-    <hyperlink ref="B295" location="_bernoulli_dist" display="_bernoulli_dist"/>
-    <hyperlink ref="B296" location="_discrete_dist" display="_discrete_dist"/>
-    <hyperlink ref="B297" location="_random_iota" display="_random_iota"/>
-    <hyperlink ref="B298" location="_random_shuffle" display="_random_shuffle"/>
-    <hyperlink ref="B247" location="_p__n" display="_p__n"/>
-    <hyperlink ref="B251" location="_p_typename" display="_p_typename"/>
-    <hyperlink ref="B253" location="_p_format" display="_p_format"/>
-    <hyperlink ref="B254" location="_p_InStr" display="_p_InStr"/>
-    <hyperlink ref="B255" location="_p_InStrRev" display="_p_InStrRev"/>
-    <hyperlink ref="B259" location="_separate_string" display="_separate_string"/>
+    <hyperlink ref="B307" location="_sin_fun" display="_sin_fun"/>
+    <hyperlink ref="B308" location="_cos_fun" display="_cos_fun"/>
+    <hyperlink ref="B309" location="_pow_fun" display="_pow_fun"/>
+    <hyperlink ref="B310" location="_make_polyCoef" display="_make_polyCoef"/>
+    <hyperlink ref="B311" location="_newton_method" display="_newton_method"/>
+    <hyperlink ref="B312" location="_integral_simpson" display="_integral_simpson"/>
+    <hyperlink ref="B313" location="_make_complex" display="_make_complex"/>
+    <hyperlink ref="B314" location="_make_complex_polar" display="_make_complex_polar"/>
+    <hyperlink ref="B315" location="_show_complex" display="_show_complex"/>
+    <hyperlink ref="B316" location="_show_complex_polar" display="_show_complex_polar"/>
+    <hyperlink ref="B324" location="_complex_arg" display="_complex_arg"/>
+    <hyperlink ref="B323" location="_complex_abs" display="_complex_abs"/>
+    <hyperlink ref="B322" location="_complex_abs2" display="_complex_abs2"/>
+    <hyperlink ref="B321" location="_complex_cnj" display="_complex_cnj"/>
+    <hyperlink ref="B320" location="_complex_divide" display="_complex_divide"/>
+    <hyperlink ref="B319" location="_complex_mult" display="_complex_mult"/>
+    <hyperlink ref="B318" location="_complex_minus" display="_complex_minus"/>
+    <hyperlink ref="B317" location="_complex_add" display="_complex_add"/>
+    <hyperlink ref="B295" location="_seed_Engine" display="_seed_Engine"/>
+    <hyperlink ref="B296" location="_uniform_int_dist" display="_uniform_int_dist"/>
+    <hyperlink ref="B297" location="_uniform_real_dist" display="_uniform_real_dist"/>
+    <hyperlink ref="B298" location="_normal_dist" display="_normal_dist"/>
+    <hyperlink ref="B299" location="_bernoulli_dist" display="_bernoulli_dist"/>
+    <hyperlink ref="B300" location="_discrete_dist" display="_discrete_dist"/>
+    <hyperlink ref="B301" location="_random_iota" display="_random_iota"/>
+    <hyperlink ref="B302" location="_random_shuffle" display="_random_shuffle"/>
+    <hyperlink ref="B251" location="_p__n" display="_p__n"/>
+    <hyperlink ref="B255" location="_p_typename" display="_p_typename"/>
+    <hyperlink ref="B257" location="_p_format" display="_p_format"/>
+    <hyperlink ref="B258" location="_p_InStr" display="_p_InStr"/>
+    <hyperlink ref="B259" location="_p_InStrRev" display="_p_InStrRev"/>
+    <hyperlink ref="B263" location="_separate_string" display="_separate_string"/>
     <hyperlink ref="B59" location="_p_foldl1" display="_p_foldl1"/>
     <hyperlink ref="B60" location="_p_foldr1" display="_p_foldr1"/>
     <hyperlink ref="B63" location="_p_scanl1" display="_p_scanl1"/>
     <hyperlink ref="B64" location="_p_scanr1" display="_p_scanr1"/>
-    <hyperlink ref="B260" location="_subM_R" display="_subM_R"/>
-    <hyperlink ref="B261" location="_subM_R_b" display="_subM_R_b"/>
-    <hyperlink ref="B262" location="_subM_C" display="_subM_C"/>
-    <hyperlink ref="B263" location="_subM_C_b" display="_subM_C_b"/>
-    <hyperlink ref="B264" location="_selectRow_b" display="_selectRow_b"/>
-    <hyperlink ref="B265" location="_selectCol_b" display="_selectCol_b"/>
-    <hyperlink ref="B266" location="_fillRow_b" display="_fillRow_b"/>
-    <hyperlink ref="B267" location="_fillRow_b_move" display="_fillRow_b_move"/>
-    <hyperlink ref="B268" location="_fillCol_b" display="_fillCol_b"/>
-    <hyperlink ref="B269" location="_fillCol_b_move" display="_fillCol_b_move"/>
-    <hyperlink ref="B272" location="_rowWise_change" display="_rowWise_change"/>
-    <hyperlink ref="B273" location="_rowWise_change_move" display="_rowWise_change_move"/>
-    <hyperlink ref="B274" location="_columnWise_change" display="_columnWise_change"/>
-    <hyperlink ref="B286" location="_group_by_partition_points" display="_group_by_partition_points"/>
-    <hyperlink ref="B285" location="_splitStr2Funs" display="_splitStr2Funs"/>
-    <hyperlink ref="B277" location="_equal_all_pred" display="_equal_all_pred"/>
-    <hyperlink ref="B276" location="_equal_all" display="_equal_all"/>
-    <hyperlink ref="B275" location="_columnWise_change_move" display="_columnWise_change_move"/>
-    <hyperlink ref="B248" location="_p_try" display="_p_try"/>
-    <hyperlink ref="B270" location="_adjacent_op" display="_adjacent_op"/>
+    <hyperlink ref="B264" location="_subM_R" display="_subM_R"/>
+    <hyperlink ref="B265" location="_subM_R_b" display="_subM_R_b"/>
+    <hyperlink ref="B266" location="_subM_C" display="_subM_C"/>
+    <hyperlink ref="B267" location="_subM_C_b" display="_subM_C_b"/>
+    <hyperlink ref="B268" location="_selectRow_b" display="_selectRow_b"/>
+    <hyperlink ref="B269" location="_selectCol_b" display="_selectCol_b"/>
+    <hyperlink ref="B270" location="_fillRow_b" display="_fillRow_b"/>
+    <hyperlink ref="B271" location="_fillRow_b_move" display="_fillRow_b_move"/>
+    <hyperlink ref="B272" location="_fillCol_b" display="_fillCol_b"/>
+    <hyperlink ref="B273" location="_fillCol_b_move" display="_fillCol_b_move"/>
+    <hyperlink ref="B276" location="_rowWise_change" display="_rowWise_change"/>
+    <hyperlink ref="B277" location="_rowWise_change_move" display="_rowWise_change_move"/>
+    <hyperlink ref="B278" location="_columnWise_change" display="_columnWise_change"/>
+    <hyperlink ref="B290" location="_group_by_partition_points" display="_group_by_partition_points"/>
+    <hyperlink ref="B289" location="_splitStr2Funs" display="_splitStr2Funs"/>
+    <hyperlink ref="B281" location="_equal_all_pred" display="_equal_all_pred"/>
+    <hyperlink ref="B280" location="_equal_all" display="_equal_all"/>
+    <hyperlink ref="B279" location="_columnWise_change_move" display="_columnWise_change_move"/>
+    <hyperlink ref="B252" location="_p_try" display="_p_try"/>
+    <hyperlink ref="B274" location="_adjacent_op" display="_adjacent_op"/>
     <hyperlink ref="B7" location="_mapF_imple" display="_mapF_imple"/>
     <hyperlink ref="B17" location="_stdsort" display="_stdsort"/>
     <hyperlink ref="B19" location="_find_best_imple" display="find_best_imple"/>
     <hyperlink ref="B20" location="_repeat_imple" display="_repeat_imple"/>
-    <hyperlink ref="B249" location="_p_try_not" display="_p_try_not"/>
+    <hyperlink ref="B253" location="_p_try_not" display="_p_try_not"/>
     <hyperlink ref="B201" location="_less_dic" display="_less_dic"/>
     <hyperlink ref="B202" location="_less_equal_dic" display="_less_equal_dic"/>
     <hyperlink ref="B203" location="_greater_dic" display="_greater_dic"/>
     <hyperlink ref="B204" location="_greater_equal_dic" display="_greater_equal_dic"/>
     <hyperlink ref="B1" location="_files" display="ファイル構成"/>
-    <hyperlink ref="B250" location="_p_try_less" display="_p_try_less"/>
-    <hyperlink ref="B252" location="_p_isNumeric" display="_p_isNumeric"/>
-    <hyperlink ref="B257" location="_p_StrConv" display="_p_StrConv"/>
-    <hyperlink ref="B209" location="_New_vh_stdvec" display="New"/>
-    <hyperlink ref="B210" location="_from_vh_stdvec" display="from"/>
-    <hyperlink ref="B211" location="_clear" display="_clear"/>
-    <hyperlink ref="B212" location="_free" display="_free"/>
-    <hyperlink ref="B215" location="_size" display="_size"/>
-    <hyperlink ref="B216" location="_capacity" display="_capacity"/>
-    <hyperlink ref="B217" location="_shrink" display="_shrink"/>
-    <hyperlink ref="B218" location="_erase_n" display="_erase_n"/>
-    <hyperlink ref="B219" location="_vec_printS" display="printS"/>
-    <hyperlink ref="B220" location="_vec_printM" display="_vec_printM"/>
-    <hyperlink ref="B221" location="_vec_printM_" display="_vec_printM_"/>
-    <hyperlink ref="B222" location="_val" display="_val"/>
-    <hyperlink ref="B223" location="_pop" display="_pop"/>
-    <hyperlink ref="B224" location="_push" display="_push"/>
-    <hyperlink ref="B225" location="_push_n" display="_push_n"/>
-    <hyperlink ref="B226" location="_push_array" display="_push_array"/>
-    <hyperlink ref="B213" location="_swap_vh_stdvec" display="swap"/>
-    <hyperlink ref="B227" location="_insert_empty" display="_insert_empty"/>
-    <hyperlink ref="B228" location="_push_back" display="_push_back"/>
-    <hyperlink ref="B229" location="_push_back_n" display="_push_back_n"/>
-    <hyperlink ref="B230" location="_push_back_array" display="_push_back_array"/>
+    <hyperlink ref="B254" location="_p_try_less" display="_p_try_less"/>
+    <hyperlink ref="B256" location="_p_isNumeric" display="_p_isNumeric"/>
+    <hyperlink ref="B261" location="_p_StrConv" display="_p_StrConv"/>
+    <hyperlink ref="B213" location="_New_vh_stdvec" display="New"/>
+    <hyperlink ref="B214" location="_from_vh_stdvec" display="from"/>
+    <hyperlink ref="B215" location="_clear" display="_clear"/>
+    <hyperlink ref="B216" location="_free" display="_free"/>
+    <hyperlink ref="B219" location="_size" display="_size"/>
+    <hyperlink ref="B220" location="_capacity" display="_capacity"/>
+    <hyperlink ref="B221" location="_shrink" display="_shrink"/>
+    <hyperlink ref="B222" location="_erase_n" display="_erase_n"/>
+    <hyperlink ref="B223" location="_vec_printS" display="printS"/>
+    <hyperlink ref="B224" location="_vec_printM" display="_vec_printM"/>
+    <hyperlink ref="B225" location="_vec_printM_" display="_vec_printM_"/>
+    <hyperlink ref="B226" location="_val" display="_val"/>
+    <hyperlink ref="B227" location="_pop" display="_pop"/>
+    <hyperlink ref="B228" location="_push" display="_push"/>
+    <hyperlink ref="B229" location="_push_n" display="_push_n"/>
+    <hyperlink ref="B230" location="_push_array" display="_push_array"/>
+    <hyperlink ref="B217" location="_swap_vh_stdvec" display="swap"/>
+    <hyperlink ref="B231" location="_insert_empty" display="_insert_empty"/>
+    <hyperlink ref="B232" location="_push_back" display="_push_back"/>
+    <hyperlink ref="B233" location="_push_back_n" display="_push_back_n"/>
+    <hyperlink ref="B234" location="_push_back_array" display="_push_back_array"/>
     <hyperlink ref="C2" r:id="rId9" display="https://github.com/mYmd/VBA/blob/master/Haskell_0_declare.bas"/>
     <hyperlink ref="C1" r:id="rId10"/>
-    <hyperlink ref="B214" location="_clone_vh_stdvec" display="clone"/>
-    <hyperlink ref="B234" location="_orderby_vh_stdvec" display="orderby"/>
-    <hyperlink ref="B233" location="_map_vh_stdvec" display="map"/>
-    <hyperlink ref="B232" location="_filter_vh_stdvec" display="filter"/>
-    <hyperlink ref="B278" location="_filter_if" display="filter_if"/>
-    <hyperlink ref="B279" location="_filter_if_not" display="filter_if_not"/>
-    <hyperlink ref="B282" location="_2pipe" display="pipe"/>
-    <hyperlink ref="B283" location="_2pipe_" display="pipe_"/>
-    <hyperlink ref="B237" location="_pipe" display="pipe"/>
-    <hyperlink ref="B238" location="_pipe_" display="pipe_"/>
-    <hyperlink ref="B239" location="_pipe_X" display="x"/>
-    <hyperlink ref="B240" location="_pipe_arrow" display="→"/>
-    <hyperlink ref="B241" location="_pipe_val" display="val"/>
-    <hyperlink ref="B242" location="_pipe_pop" display="pop"/>
-    <hyperlink ref="B243" location="_pipe_swap" display="swap"/>
-    <hyperlink ref="B244" location="_pipe_clone" display="clone"/>
+    <hyperlink ref="B218" location="_clone_vh_stdvec" display="clone"/>
+    <hyperlink ref="B238" location="_orderby_vh_stdvec" display="orderby"/>
+    <hyperlink ref="B237" location="_map_vh_stdvec" display="map"/>
+    <hyperlink ref="B236" location="_filter_vh_stdvec" display="filter"/>
+    <hyperlink ref="B282" location="_filter_if" display="filter_if"/>
+    <hyperlink ref="B283" location="_filter_if_not" display="filter_if_not"/>
+    <hyperlink ref="B286" location="_2pipe" display="pipe"/>
+    <hyperlink ref="B287" location="_2pipe_" display="pipe_"/>
+    <hyperlink ref="B241" location="_pipe" display="pipe"/>
+    <hyperlink ref="B242" location="_pipe_" display="pipe_"/>
+    <hyperlink ref="B243" location="_pipe_X" display="x"/>
+    <hyperlink ref="B244" location="_pipe_arrow" display="→"/>
+    <hyperlink ref="B245" location="_pipe_val" display="val"/>
+    <hyperlink ref="B246" location="_pipe_pop" display="pop"/>
+    <hyperlink ref="B247" location="_pipe_swap" display="swap"/>
+    <hyperlink ref="B248" location="_pipe_clone" display="clone"/>
     <hyperlink ref="B23" location="_self_zipWith" display="self_zipWith"/>
-    <hyperlink ref="B258" location="_p_Trim" display="p_Trim"/>
-    <hyperlink ref="B271" location="_get_unique" display="get_unique"/>
-    <hyperlink ref="B280" location="_p_Not" display="p_Not"/>
-    <hyperlink ref="B281" location="_p_imply" display="p_imply"/>
-    <hyperlink ref="B287" location="_csv2Vector" display="_csv2Vector"/>
-    <hyperlink ref="B288" location="_A_overlap_B" display="A_overlap_B"/>
+    <hyperlink ref="B262" location="_p_Trim" display="p_Trim"/>
+    <hyperlink ref="B275" location="_get_unique" display="get_unique"/>
+    <hyperlink ref="B284" location="_p_Not" display="p_Not"/>
+    <hyperlink ref="B285" location="_p_imply" display="p_imply"/>
+    <hyperlink ref="B291" location="_csv2Vector" display="_csv2Vector"/>
+    <hyperlink ref="B292" location="_A_overlap_B" display="A_overlap_B"/>
     <hyperlink ref="B205" location="_equal_dic" display="equal_dic"/>
     <hyperlink ref="B206" location="_notEqual_dic" display="notEqual_dic"/>
-    <hyperlink ref="B284" location="____stdVec" display="stdVec"/>
+    <hyperlink ref="B288" location="____stdVec" display="stdVec"/>
     <hyperlink ref="B57" location="_p_foldl" display="p_foldl"/>
     <hyperlink ref="B58" location="_p_foldr" display="p_foldr"/>
     <hyperlink ref="B61" location="_p_scanl" display="p_scanl"/>
     <hyperlink ref="B62" location="_p_scanr" display="p_scanr"/>
-    <hyperlink ref="B256" location="_p_Like" display="p_Like"/>
+    <hyperlink ref="B260" location="_p_Like" display="p_Like"/>
     <hyperlink ref="B183" location="__push_back" display="push_back"/>
     <hyperlink ref="B184" location="_push_back_move" display="push_back_move"/>
     <hyperlink ref="B185" location="_flatten" display="flatten"/>
-    <hyperlink ref="B301" location="_isPrimeNumber" display="isPrimeNumber"/>
-    <hyperlink ref="B302" location="_primeNumbers" display="primeNumbers"/>
+    <hyperlink ref="B305" location="_isPrimeNumber" display="isPrimeNumber"/>
+    <hyperlink ref="B306" location="_primeNumbers" display="primeNumbers"/>
     <hyperlink ref="B86" location="_place_fill" display="place_fill"/>
     <hyperlink ref="B78" location="_firstArg" display="p_identity"/>
     <hyperlink ref="B75" location="_assignVar" display="assignVar"/>
     <hyperlink ref="B96" location="_maskVar" display="maskVar"/>
     <hyperlink ref="B169" location="_catVs_move" display="catV_move"/>
     <hyperlink ref="B171" location="_catVs_move" display="catVs_move"/>
-    <hyperlink ref="B231" location="_push_back_arrays" display="push_back_arrays"/>
+    <hyperlink ref="B235" location="_push_back_arrays" display="push_back_arrays"/>
     <hyperlink ref="B18" location="_find_imple" display="_find_imple"/>
+    <hyperlink ref="B207" location="_binary_less" display="binary_less"/>
+    <hyperlink ref="B208" location="_binary_less_dic" display="binary_less_dic"/>
+    <hyperlink ref="B209" location="_text_less" display="text_less"/>
+    <hyperlink ref="B210" location="_text_less_dic" display="text_less_dic"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -36078,12 +36402,12 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="409.6">
+    <row r="219" spans="2:2">
       <c r="B219" s="137" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="409.6">
+    <row r="220" spans="2:2">
       <c r="B220" s="136" t="s">
         <v>1833</v>
       </c>
@@ -41734,7 +42058,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42700,30 +43024,107 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="1:2">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="14.25">
+    <row r="226" spans="1:2" ht="14.25">
       <c r="B226" s="62" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="1:2">
       <c r="B229" s="14" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="14.25">
+    <row r="230" spans="1:2" ht="14.25">
       <c r="B230" s="14" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:2">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="14.25">
+    <row r="232" spans="1:2" ht="14.25">
       <c r="B232" s="62" t="s">
         <v>1879</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="B235" s="14" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14.25">
+      <c r="B236" s="14" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="B237" s="12"/>
+    </row>
+    <row r="238" spans="1:2" ht="14.25">
+      <c r="B238" s="62" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="17.25">
+      <c r="A240" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="14" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="14.25">
+      <c r="B242" s="14" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="12"/>
+    </row>
+    <row r="244" spans="2:2" ht="14.25">
+      <c r="B244" s="62" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="14" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="14.25">
+      <c r="B248" s="14" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="12"/>
+    </row>
+    <row r="250" spans="2:2" ht="14.25">
+      <c r="B250" s="62" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="14" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="14.25">
+      <c r="B254" s="14" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="12"/>
+    </row>
+    <row r="256" spans="2:2" ht="14.25">
+      <c r="B256" s="62" t="s">
+        <v>2052</v>
       </c>
     </row>
   </sheetData>
@@ -42739,6 +43140,7 @@
     <hyperlink ref="A175" location="_sorting" display="戻る"/>
     <hyperlink ref="A197" location="_sorting" display="戻る"/>
     <hyperlink ref="A221" location="_sorting" display="戻る"/>
+    <hyperlink ref="A240" location="_sorting" display="戻る"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vh_Manual/VBAHaskell_reference.xlsx
+++ b/vh_Manual/VBAHaskell_reference.xlsx
@@ -49,7 +49,7 @@
     <definedName name="_catVs">Haskell_4_vector!$B$380</definedName>
     <definedName name="_catVs_move">Haskell_4_vector!$B$387</definedName>
     <definedName name="_CDbl_">Haskell_2_stdFun!$B$234</definedName>
-    <definedName name="_changeLBound">Haskell_0_declare!$B$206</definedName>
+    <definedName name="_changeLBound">Haskell_0_declare!$B$218</definedName>
     <definedName name="_clear" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_clear">vh_stdvec!$B$24</definedName>
     <definedName name="_CLng_">Haskell_2_stdFun!$B$228</definedName>
@@ -74,7 +74,7 @@
     <definedName name="_csv2Vector">misc_utility!$B$324</definedName>
     <definedName name="_cutoff_left">misc_utility!#REF!</definedName>
     <definedName name="_cutoff_right">misc_utility!#REF!</definedName>
-    <definedName name="_debug_print">Index!$A$129</definedName>
+    <definedName name="_debug_print">Index!$A$130</definedName>
     <definedName name="_Dimension">Haskell_0_declare!$B$1</definedName>
     <definedName name="_discrete_dist">misc_random!$B$60</definedName>
     <definedName name="_divide">Haskell_2_stdFun!$B$198</definedName>
@@ -108,10 +108,11 @@
     <definedName name="_filter_vh_stdvec">vh_stdvec!$B$261</definedName>
     <definedName name="_filterC">Haskell_4_vector!$B$348</definedName>
     <definedName name="_filterR">Haskell_4_vector!$B$333</definedName>
-    <definedName name="_find_best_imple">Haskell_0_declare!$B$176</definedName>
+    <definedName name="_find_best_imple">Haskell_0_declare!$B$188</definedName>
     <definedName name="_find_best_pred">Haskell_1_Core!$B$248</definedName>
     <definedName name="_find_imple">Haskell_0_declare!$B$167</definedName>
     <definedName name="_find_pred">Haskell_1_Core!$B$236</definedName>
+    <definedName name="_find_pred_Vv">Haskell_0_declare!$B$176</definedName>
     <definedName name="_firstArg">Haskell_2_stdFun!$B$7</definedName>
     <definedName name="_flatten">Haskell_4_vector!$B$624</definedName>
     <definedName name="_foldl">Haskell_0_declare!$B$41</definedName>
@@ -177,8 +178,8 @@
     <definedName name="_mapF_imple">Haskell_0_declare!$B$22</definedName>
     <definedName name="_mapF_swap">Haskell_1_Core!$B$144</definedName>
     <definedName name="_maskVar">Haskell_2_stdFun!$B$156</definedName>
-    <definedName name="_math">Index!$A$313</definedName>
-    <definedName name="_matrix_op">Index!$A$135</definedName>
+    <definedName name="_math">Index!$A$314</definedName>
+    <definedName name="_matrix_op">Index!$A$136</definedName>
     <definedName name="_max_fun">Haskell_2_stdFun!$B$222</definedName>
     <definedName name="_min_fun">Haskell_2_stdFun!$B$216</definedName>
     <definedName name="_minus">Haskell_2_stdFun!$B$186</definedName>
@@ -264,9 +265,9 @@
     <definedName name="_push_n">vh_stdvec!$B$181</definedName>
     <definedName name="_random_iota">misc_random!$B$74</definedName>
     <definedName name="_random_shuffle">misc_random!$B$82</definedName>
-    <definedName name="_randoms">Index!$A$303</definedName>
+    <definedName name="_randoms">Index!$A$304</definedName>
     <definedName name="_repeat">Haskell_4_vector!$B$24</definedName>
-    <definedName name="_repeat_imple">Haskell_0_declare!$B$185</definedName>
+    <definedName name="_repeat_imple">Haskell_0_declare!$B$197</definedName>
     <definedName name="_repeat_while">Haskell_1_Core!$B$261</definedName>
     <definedName name="_repeat_while_not">Haskell_1_Core!$B$273</definedName>
     <definedName name="_replaceEmpty">Haskell_2_stdFun!$B$148</definedName>
@@ -294,7 +295,7 @@
     <definedName name="_selectCol_b">misc_utility!$B$137</definedName>
     <definedName name="_selectRow">Haskell_4_vector!$B$166</definedName>
     <definedName name="_selectRow_b">misc_utility!$B$130</definedName>
-    <definedName name="_self_zipWith">Haskell_0_declare!$B$213</definedName>
+    <definedName name="_self_zipWith">Haskell_0_declare!$B$225</definedName>
     <definedName name="_separate_string">misc_utility!$B$97</definedName>
     <definedName name="_setNth_b">Haskell_2_stdFun!$B$47</definedName>
     <definedName name="_setNth_b_move">Haskell_2_stdFun!$B$63</definedName>
@@ -311,12 +312,12 @@
     <definedName name="_sizeof">Haskell_2_stdFun!$B$107</definedName>
     <definedName name="_sortIndex">Haskell_5_sort!$B$1</definedName>
     <definedName name="_sortIndex_pred">Haskell_5_sort!$B$39</definedName>
-    <definedName name="_sorting">Index!$A$191</definedName>
+    <definedName name="_sorting">Index!$A$192</definedName>
     <definedName name="_splitFun">Haskell_2_stdFun!$B$276</definedName>
     <definedName name="_splitStr2Funs">misc_utility!$B$259</definedName>
-    <definedName name="_stdfun">Index!$A$74</definedName>
+    <definedName name="_stdfun">Index!$A$75</definedName>
     <definedName name="_stdsort">Haskell_0_declare!$B$159</definedName>
-    <definedName name="_stdvec">Index!$A$221</definedName>
+    <definedName name="_stdvec">Index!$A$222</definedName>
     <definedName name="_str_cat">Haskell_2_stdFun!$B$270</definedName>
     <definedName name="_str_left">Haskell_2_stdFun!$B$252</definedName>
     <definedName name="_str_len">Haskell_2_stdFun!$B$246</definedName>
@@ -334,7 +335,7 @@
     <definedName name="_swap_vh_stdvec">vh_stdvec!$B$35</definedName>
     <definedName name="_swap1st">Haskell_1_Core!$B$110</definedName>
     <definedName name="_swap2nd">Haskell_1_Core!$B$118</definedName>
-    <definedName name="_swapVariant">Haskell_0_declare!$B$197</definedName>
+    <definedName name="_swapVariant">Haskell_0_declare!$B$209</definedName>
     <definedName name="_tailN">Haskell_4_vector!$B$93</definedName>
     <definedName name="_text_less">Haskell_5_sort!$B$243</definedName>
     <definedName name="_text_less_dic">Haskell_5_sort!$B$249</definedName>
@@ -347,11 +348,11 @@
     <definedName name="_unzipR">Haskell_4_vector!$B$509</definedName>
     <definedName name="_upper_bound">Haskell_5_sort!$B$123</definedName>
     <definedName name="_upper_bound_pred">Haskell_5_sort!$B$138</definedName>
-    <definedName name="_utilities">Index!$A$259</definedName>
+    <definedName name="_utilities">Index!$A$260</definedName>
     <definedName name="_val" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_val">vh_stdvec!$B$150</definedName>
     <definedName name="_vba_home">Index!$A$1</definedName>
-    <definedName name="_VBAHaskell_Core">Index!$A$25</definedName>
+    <definedName name="_VBAHaskell_Core">Index!$A$26</definedName>
     <definedName name="_vec_printM" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_vec_printM">vh_stdvec!$B$128</definedName>
     <definedName name="_vec_printM_" localSheetId="8">vh_pipe!#REF!</definedName>
@@ -359,7 +360,7 @@
     <definedName name="_vec_printS" localSheetId="8">vh_pipe!#REF!</definedName>
     <definedName name="_vec_printS">vh_stdvec!$B$121</definedName>
     <definedName name="_vector">Haskell_4_vector!$B$104</definedName>
-    <definedName name="_vh_pipe">Index!$A$249</definedName>
+    <definedName name="_vh_pipe">Index!$A$250</definedName>
     <definedName name="_yield_0">Haskell_1_Core!$B$34</definedName>
     <definedName name="_yield_1">Haskell_1_Core!$B$41</definedName>
     <definedName name="_yield_2">Haskell_1_Core!$B$48</definedName>
@@ -373,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="2095">
   <si>
     <t>Dimension</t>
   </si>
@@ -25644,6 +25645,97 @@
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>find_pred_Vv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語による1次元配列(child_set)から1次元配列(parent_set)への検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>述語による1次元配列(child_set)から1次元配列(parent_set)への検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Declare PtrSafe Function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find_pred_Vv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lib "mapM.dll" ( _</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            ByRef parent_set As Variant, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ByRef child_set As Variant) As Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5  4  5  0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">printM  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find_pred_Vv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(p_equal, p, c)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p = Array("A",　"B",　"C",　"D",　"E")</t>
+  </si>
+  <si>
+    <t>c = Array("K",　"E",　"Z",　"A")</t>
   </si>
 </sst>
 </file>
@@ -28322,7 +28414,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -28552,11 +28644,11 @@
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="141" t="s">
-        <v>2021</v>
+      <c r="B19" s="30" t="s">
+        <v>2085</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>2022</v>
+        <v>2086</v>
       </c>
       <c r="D19" s="37"/>
     </row>
@@ -28564,11 +28656,11 @@
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>367</v>
+      <c r="B20" s="141" t="s">
+        <v>2021</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>863</v>
+        <v>2022</v>
       </c>
       <c r="D20" s="37"/>
     </row>
@@ -28576,98 +28668,98 @@
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C23" s="31" t="s">
         <v>952</v>
       </c>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" customFormat="1">
-      <c r="A23" s="134" t="s">
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:4" customFormat="1">
+      <c r="A24" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B24" s="127" t="s">
         <v>1817</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C24" s="135" t="s">
         <v>1818</v>
       </c>
-      <c r="D23" s="136"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="D24" s="136"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D27" s="34" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>8</v>
+      <c r="B28" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>7</v>
@@ -28678,35 +28770,35 @@
       <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>10</v>
+      <c r="B30" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="36"/>
+        <v>237</v>
+      </c>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="36"/>
     </row>
@@ -28714,11 +28806,11 @@
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>865</v>
+      <c r="B33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D33" s="36"/>
     </row>
@@ -28726,11 +28818,11 @@
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
+      <c r="B34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>865</v>
       </c>
       <c r="D34" s="36"/>
     </row>
@@ -28739,10 +28831,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="36"/>
     </row>
@@ -28751,10 +28843,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="36"/>
     </row>
@@ -28763,104 +28855,102 @@
         <v>1</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>994</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>890</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="19" t="s">
-        <v>3</v>
+      <c r="A39" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>998</v>
-      </c>
-      <c r="D39" s="36"/>
+        <v>995</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C41" s="31" t="s">
         <v>999</v>
       </c>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>481</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>890</v>
-      </c>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D42" s="37"/>
+      <c r="B42" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>890</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28869,12 +28959,12 @@
         <v>1</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28883,12 +28973,12 @@
         <v>1</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28897,10 +28987,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>890</v>
@@ -28911,10 +29001,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>890</v>
@@ -28925,10 +29015,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>890</v>
@@ -28939,10 +29029,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>890</v>
@@ -28953,10 +29043,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>890</v>
@@ -28967,10 +29057,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>890</v>
@@ -28981,22 +29071,24 @@
         <v>1</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D54" s="36"/>
     </row>
@@ -29005,10 +29097,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D55" s="36"/>
     </row>
@@ -29017,10 +29109,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" s="36"/>
     </row>
@@ -29028,25 +29120,23 @@
       <c r="A57" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>889</v>
-      </c>
+      <c r="B57" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>889</v>
@@ -29056,11 +29146,11 @@
       <c r="A59" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>289</v>
+      <c r="B59" s="24" t="s">
+        <v>1882</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>877</v>
+        <v>1884</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>889</v>
@@ -29071,10 +29161,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>889</v>
@@ -29084,11 +29174,11 @@
       <c r="A61" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>1885</v>
+      <c r="B61" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1888</v>
+        <v>878</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>889</v>
@@ -29099,10 +29189,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>889</v>
@@ -29112,11 +29202,11 @@
       <c r="A63" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>291</v>
+      <c r="B63" s="24" t="s">
+        <v>1886</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>879</v>
+        <v>1887</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>889</v>
@@ -29127,10 +29217,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1834</v>
+        <v>879</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>889</v>
@@ -29141,34 +29231,36 @@
         <v>1</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="36"/>
+        <v>292</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="D66" s="36"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D67" s="37"/>
     </row>
@@ -29177,10 +29269,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D68" s="37"/>
     </row>
@@ -29189,22 +29281,22 @@
         <v>1</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D70" s="36"/>
     </row>
@@ -29213,10 +29305,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D71" s="36"/>
     </row>
@@ -29225,66 +29317,64 @@
         <v>1</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="36"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="36"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="32"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="A74" s="25" t="s">
+      <c r="D73" s="36"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="A75" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="5" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D74" s="32"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="19" t="s">
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B76" s="17" t="s">
         <v>1983</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>1979</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D76" s="38" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="A76" s="6" t="s">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="A77" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B77" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>890</v>
@@ -29294,67 +29384,67 @@
       <c r="A78" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>889</v>
+      <c r="B78" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="30" t="s">
-        <v>71</v>
+      <c r="B79" s="24" t="s">
+        <v>1945</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>890</v>
+        <v>1984</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>72</v>
+      <c r="B80" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="A82" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B82" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C82" s="31" t="s">
         <v>1952</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>1953</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>1932</v>
@@ -29365,10 +29455,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D83" s="41" t="s">
         <v>1932</v>
@@ -29379,38 +29469,38 @@
         <v>1</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>1952</v>
       </c>
       <c r="D84" s="41" t="s">
         <v>1932</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="A85" s="19" t="s">
-        <v>3</v>
+      <c r="A85" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>374</v>
+        <v>76</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D85" s="41" t="s">
         <v>1932</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>1</v>
+      <c r="A86" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>1946</v>
+        <v>78</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="D86" s="41" t="s">
         <v>1932</v>
@@ -29421,10 +29511,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>80</v>
+        <v>1931</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>1946</v>
       </c>
       <c r="D87" s="41" t="s">
         <v>1932</v>
@@ -29435,10 +29525,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>1932</v>
@@ -29449,13 +29539,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>890</v>
+        <v>82</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -29463,13 +29553,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>866</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>889</v>
+        <v>83</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
@@ -29477,10 +29567,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>889</v>
@@ -29491,10 +29581,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>889</v>
@@ -29505,13 +29595,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>890</v>
+        <v>86</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -29519,10 +29609,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>890</v>
@@ -29533,10 +29623,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>890</v>
@@ -29547,10 +29637,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>1986</v>
+        <v>90</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1985</v>
+        <v>91</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>890</v>
@@ -29561,10 +29651,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>92</v>
+        <v>1986</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>93</v>
+        <v>1985</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>890</v>
@@ -29575,10 +29665,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D98" s="37" t="s">
         <v>890</v>
@@ -29589,10 +29679,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>890</v>
@@ -29602,11 +29692,11 @@
       <c r="A100" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="30" t="s">
-        <v>98</v>
+      <c r="B100" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>890</v>
@@ -29616,11 +29706,11 @@
       <c r="A101" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>100</v>
+      <c r="B101" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D101" s="37" t="s">
         <v>890</v>
@@ -29631,10 +29721,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="37" t="s">
         <v>890</v>
@@ -29645,10 +29735,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>890</v>
@@ -29659,10 +29749,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D104" s="37" t="s">
         <v>890</v>
@@ -29673,10 +29763,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>890</v>
@@ -29687,10 +29777,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D106" s="37" t="s">
         <v>890</v>
@@ -29701,10 +29791,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D107" s="37" t="s">
         <v>890</v>
@@ -29715,10 +29805,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D108" s="37" t="s">
         <v>890</v>
@@ -29729,10 +29819,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D109" s="37" t="s">
         <v>890</v>
@@ -29743,10 +29833,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>895</v>
+        <v>116</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>890</v>
@@ -29756,11 +29846,11 @@
       <c r="A111" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>860</v>
+      <c r="B111" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>1977</v>
+        <v>895</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>890</v>
@@ -29770,11 +29860,11 @@
       <c r="A112" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>119</v>
+      <c r="B112" s="24" t="s">
+        <v>860</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D112" s="37" t="s">
         <v>890</v>
@@ -29785,10 +29875,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>896</v>
+        <v>1978</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>890</v>
@@ -29799,10 +29889,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>896</v>
       </c>
       <c r="D114" s="37" t="s">
         <v>890</v>
@@ -29813,10 +29903,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>897</v>
+        <v>121</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="D115" s="37" t="s">
         <v>890</v>
@@ -29827,10 +29917,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>890</v>
@@ -29841,10 +29931,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>893</v>
+        <v>124</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>898</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>890</v>
@@ -29855,10 +29945,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D118" s="37" t="s">
         <v>890</v>
@@ -29869,10 +29959,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>376</v>
+        <v>126</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="D119" s="37" t="s">
         <v>890</v>
@@ -29883,10 +29973,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="D120" s="37" t="s">
         <v>890</v>
@@ -29897,10 +29987,10 @@
         <v>1</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>1155</v>
+        <v>128</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D121" s="37" t="s">
         <v>890</v>
@@ -29911,10 +30001,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D122" s="37" t="s">
         <v>890</v>
@@ -29925,10 +30015,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D123" s="37" t="s">
         <v>890</v>
@@ -29939,10 +30029,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D124" s="37" t="s">
         <v>890</v>
@@ -29953,10 +30043,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>1157</v>
       </c>
       <c r="D125" s="37" t="s">
         <v>890</v>
@@ -29967,10 +30057,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D126" s="37" t="s">
         <v>890</v>
@@ -29981,120 +30071,120 @@
         <v>1</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D127" s="37" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="32"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="A129" s="25" t="s">
+    <row r="128" spans="1:4" ht="15" customHeight="1">
+      <c r="A128" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="32"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="A130" s="25" t="s">
         <v>845</v>
       </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="5" t="s">
+      <c r="B130" s="26"/>
+      <c r="C130" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D129" s="32"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="A130" s="20" t="s">
+      <c r="D130" s="32"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1">
+      <c r="A131" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B131" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D130" s="38"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="19" t="s">
+      <c r="D131" s="38"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1">
+      <c r="A132" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B132" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C132" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="38"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
-      <c r="A132" s="8" t="s">
+      <c r="D132" s="38"/>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1">
+      <c r="A133" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B133" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C133" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D132" s="38"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="A133" s="19" t="s">
+      <c r="D133" s="38"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1">
+      <c r="A134" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B134" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D133" s="38"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="32"/>
+      <c r="D134" s="38"/>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="32"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1">
+      <c r="A136" s="25" t="s">
         <v>846</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="5" t="s">
+      <c r="B136" s="26"/>
+      <c r="C136" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D135" s="32"/>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
-      <c r="A136" s="6" t="s">
+      <c r="D136" s="32"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1">
+      <c r="A137" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B137" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D136" s="41" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137" s="37" t="s">
+      <c r="D137" s="41" t="s">
         <v>890</v>
       </c>
     </row>
@@ -30103,10 +30193,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>890</v>
@@ -30116,11 +30206,11 @@
       <c r="A139" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="30" t="s">
-        <v>154</v>
+      <c r="B139" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D139" s="37" t="s">
         <v>890</v>
@@ -30130,11 +30220,11 @@
       <c r="A140" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>156</v>
+      <c r="B140" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="D140" s="37" t="s">
         <v>890</v>
@@ -30144,11 +30234,11 @@
       <c r="A141" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="30" t="s">
-        <v>157</v>
+      <c r="B141" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D141" s="37" t="s">
         <v>890</v>
@@ -30158,11 +30248,11 @@
       <c r="A142" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="18" t="s">
-        <v>158</v>
+      <c r="B142" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D142" s="37" t="s">
         <v>890</v>
@@ -30173,10 +30263,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D143" s="37" t="s">
         <v>890</v>
@@ -30187,10 +30277,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="D144" s="37" t="s">
         <v>890</v>
@@ -30201,10 +30291,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D145" s="37" t="s">
         <v>890</v>
@@ -30214,63 +30304,63 @@
       <c r="A146" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="30" t="s">
-        <v>164</v>
+      <c r="B146" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D146" s="38"/>
+        <v>163</v>
+      </c>
+      <c r="D146" s="37" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="38"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D147" s="38"/>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="A148" s="19" t="s">
+      <c r="D148" s="38"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="A149" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B149" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D148" s="38"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D149" s="37" t="s">
-        <v>890</v>
-      </c>
+      <c r="D149" s="38"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" s="37" t="s">
         <v>890</v>
       </c>
     </row>
@@ -30279,10 +30369,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D151" s="41" t="s">
         <v>890</v>
@@ -30293,10 +30383,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D152" s="41" t="s">
         <v>890</v>
@@ -30306,107 +30396,109 @@
       <c r="A153" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="A154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D153" s="38"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="A154" s="19" t="s">
+      <c r="D154" s="38"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="A155" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B155" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C155" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D154" s="38"/>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="A155" s="8" t="s">
+      <c r="D155" s="38"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="A156" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B156" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C156" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D155" s="38"/>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
-      <c r="A156" s="19" t="s">
+      <c r="D156" s="38"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="A157" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B157" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C157" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D156" s="38"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="A157" s="8" t="s">
+      <c r="D157" s="38"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="A158" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B158" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C158" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D157" s="38"/>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
-      <c r="A158" s="19" t="s">
+      <c r="D158" s="38"/>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="A159" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B159" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C159" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D158" s="38"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="D159" s="38"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="A160" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B160" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D159" s="38"/>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="A160" s="19" t="s">
+      <c r="D160" s="38"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1">
+      <c r="A161" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B161" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C161" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="D160" s="38"/>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
-      <c r="A161" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="D161" s="38"/>
     </row>
@@ -30414,25 +30506,23 @@
       <c r="A162" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="30" t="s">
-        <v>196</v>
+      <c r="B162" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D162" s="41" t="s">
-        <v>890</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D162" s="38"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>198</v>
+      <c r="B163" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D163" s="41" t="s">
         <v>890</v>
@@ -30442,23 +30532,25 @@
       <c r="A164" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="30" t="s">
-        <v>200</v>
+      <c r="B164" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D164" s="38"/>
+        <v>199</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="18" t="s">
-        <v>202</v>
+      <c r="B165" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D165" s="38"/>
     </row>
@@ -30466,25 +30558,23 @@
       <c r="A166" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="30" t="s">
-        <v>203</v>
+      <c r="B166" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D166" s="41" t="s">
-        <v>890</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D166" s="38"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="18" t="s">
-        <v>205</v>
+      <c r="B167" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>1260</v>
+        <v>204</v>
       </c>
       <c r="D167" s="41" t="s">
         <v>890</v>
@@ -30494,11 +30584,11 @@
       <c r="A168" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="30" t="s">
-        <v>206</v>
+      <c r="B168" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>207</v>
+        <v>1260</v>
       </c>
       <c r="D168" s="41" t="s">
         <v>890</v>
@@ -30508,35 +30598,37 @@
       <c r="A169" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>1989</v>
+      <c r="B169" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D169" s="41"/>
+        <v>207</v>
+      </c>
+      <c r="D169" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>208</v>
+        <v>1989</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D170" s="38"/>
+        <v>1991</v>
+      </c>
+      <c r="D170" s="41"/>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="24" t="s">
-        <v>1990</v>
+      <c r="B171" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>1992</v>
+        <v>209</v>
       </c>
       <c r="D171" s="38"/>
     </row>
@@ -30544,25 +30636,23 @@
       <c r="A172" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="18" t="s">
-        <v>210</v>
+      <c r="B172" s="24" t="s">
+        <v>1990</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D172" s="41" t="s">
-        <v>890</v>
-      </c>
+        <v>1992</v>
+      </c>
+      <c r="D172" s="38"/>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D173" s="41" t="s">
         <v>890</v>
@@ -30573,48 +30663,50 @@
         <v>1</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D174" s="38"/>
+        <v>213</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="30" t="s">
-        <v>216</v>
+      <c r="B175" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D175" s="41" t="s">
-        <v>890</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D175" s="38"/>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="A176" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="18" t="s">
-        <v>2059</v>
+      <c r="B176" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D176" s="38"/>
+        <v>217</v>
+      </c>
+      <c r="D176" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>2060</v>
+      <c r="B177" s="18" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="D177" s="38"/>
     </row>
@@ -30623,10 +30715,10 @@
         <v>1</v>
       </c>
       <c r="B178" s="143" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D178" s="38"/>
     </row>
@@ -30634,11 +30726,11 @@
       <c r="A179" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>223</v>
+      <c r="B179" s="143" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>2061</v>
       </c>
       <c r="D179" s="38"/>
     </row>
@@ -30647,10 +30739,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D180" s="38"/>
     </row>
@@ -30658,11 +30750,11 @@
       <c r="A181" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="24" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>2066</v>
+      <c r="B181" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="D181" s="38"/>
     </row>
@@ -30670,11 +30762,11 @@
       <c r="A182" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>2067</v>
+      <c r="B182" s="24" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>2066</v>
       </c>
       <c r="D182" s="38"/>
     </row>
@@ -30683,24 +30775,22 @@
         <v>1</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>226</v>
+        <v>2071</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D183" s="41" t="s">
-        <v>890</v>
-      </c>
+        <v>2067</v>
+      </c>
+      <c r="D183" s="38"/>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>379</v>
+        <v>226</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="D184" s="41" t="s">
         <v>890</v>
@@ -30711,50 +30801,50 @@
         <v>1</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="D185" s="41" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
-      <c r="A186" s="19" t="s">
+      <c r="A186" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1">
+      <c r="A187" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B187" s="18" t="s">
         <v>1898</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>1899</v>
       </c>
-      <c r="D186" s="41"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
-      <c r="A187" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>890</v>
-      </c>
+      <c r="D187" s="41"/>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D188" s="41" t="s">
         <v>890</v>
@@ -30765,102 +30855,104 @@
         <v>1</v>
       </c>
       <c r="B189" s="18" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D189" s="41" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1">
+      <c r="A190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C190" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D189" s="38"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="32"/>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
-      <c r="A191" s="25" t="s">
+      <c r="D190" s="38"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="32"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1">
+      <c r="A192" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="B191" s="26"/>
-      <c r="C191" s="5" t="s">
+      <c r="B192" s="26"/>
+      <c r="C192" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D191" s="32"/>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
-      <c r="A192" s="6" t="s">
+      <c r="D192" s="32"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1">
+      <c r="A193" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="29" t="s">
+      <c r="B193" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C193" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D192" s="41" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
-      <c r="A193" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="D193" s="41" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
-      <c r="A194" s="19" t="s">
-        <v>3</v>
+      <c r="A194" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D194" s="39"/>
+        <v>245</v>
+      </c>
+      <c r="D194" s="41" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="A195" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" s="39"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1">
+      <c r="A196" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C196" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D195" s="39"/>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
-      <c r="A196" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C196" s="31" t="s">
-        <v>910</v>
-      </c>
-      <c r="D196" s="142"/>
+      <c r="D196" s="39"/>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>2040</v>
+        <v>249</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>2042</v>
+        <v>910</v>
       </c>
       <c r="D197" s="142"/>
     </row>
@@ -30869,10 +30961,10 @@
         <v>1</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>250</v>
+        <v>2040</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D198" s="142"/>
     </row>
@@ -30881,10 +30973,10 @@
         <v>1</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>2043</v>
+        <v>250</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D199" s="142"/>
     </row>
@@ -30893,10 +30985,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>251</v>
+        <v>2043</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>912</v>
+        <v>2044</v>
       </c>
       <c r="D200" s="142"/>
     </row>
@@ -30905,10 +30997,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>2046</v>
+        <v>251</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>2047</v>
+        <v>912</v>
       </c>
       <c r="D201" s="142"/>
     </row>
@@ -30917,10 +31009,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>252</v>
+        <v>2046</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D202" s="142"/>
     </row>
@@ -30929,10 +31021,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>2048</v>
+        <v>252</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="D203" s="142"/>
     </row>
@@ -30941,10 +31033,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>253</v>
+        <v>2048</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>914</v>
+        <v>2049</v>
       </c>
       <c r="D204" s="142"/>
     </row>
@@ -30953,10 +31045,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>2050</v>
+        <v>253</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>2051</v>
+        <v>914</v>
       </c>
       <c r="D205" s="142"/>
     </row>
@@ -30965,10 +31057,10 @@
         <v>1</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>254</v>
+        <v>2050</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="D206" s="142"/>
     </row>
@@ -30977,10 +31069,10 @@
         <v>1</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>2052</v>
+        <v>254</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="D207" s="142"/>
     </row>
@@ -30989,48 +31081,46 @@
         <v>1</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D208" s="39"/>
+        <v>2052</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D208" s="142"/>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B209" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D209" s="39"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1">
+      <c r="A210" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C210" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="D209" s="39"/>
-    </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="A210" s="66" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B210" s="18" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C210" s="31" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D210" s="41" t="s">
-        <v>890</v>
-      </c>
+      <c r="D210" s="39"/>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="66" t="s">
         <v>1141</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D211" s="41" t="s">
         <v>890</v>
@@ -31041,10 +31131,10 @@
         <v>1141</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D212" s="41" t="s">
         <v>890</v>
@@ -31055,10 +31145,10 @@
         <v>1141</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D213" s="41" t="s">
         <v>890</v>
@@ -31069,10 +31159,10 @@
         <v>1141</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>1862</v>
+        <v>1145</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>1863</v>
+        <v>1149</v>
       </c>
       <c r="D214" s="41" t="s">
         <v>890</v>
@@ -31082,11 +31172,11 @@
       <c r="A215" s="66" t="s">
         <v>1141</v>
       </c>
-      <c r="B215" s="24" t="s">
-        <v>1864</v>
+      <c r="B215" s="18" t="s">
+        <v>1862</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="D215" s="41" t="s">
         <v>890</v>
@@ -31096,11 +31186,11 @@
       <c r="A216" s="66" t="s">
         <v>1141</v>
       </c>
-      <c r="B216" s="18" t="s">
-        <v>2036</v>
+      <c r="B216" s="24" t="s">
+        <v>1864</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>2023</v>
+        <v>1859</v>
       </c>
       <c r="D216" s="41" t="s">
         <v>890</v>
@@ -31111,10 +31201,10 @@
         <v>1141</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D217" s="41" t="s">
         <v>890</v>
@@ -31125,10 +31215,10 @@
         <v>1141</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="D218" s="41" t="s">
         <v>890</v>
@@ -31138,53 +31228,53 @@
       <c r="A219" s="66" t="s">
         <v>1141</v>
       </c>
-      <c r="B219" s="24" t="s">
-        <v>2039</v>
+      <c r="B219" s="18" t="s">
+        <v>2038</v>
       </c>
       <c r="C219" s="31" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D219" s="41" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="32"/>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
-      <c r="A221" s="25" t="s">
+    <row r="220" spans="1:4" ht="15" customHeight="1">
+      <c r="A220" s="66" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C220" s="31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D220" s="41" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="32"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1">
+      <c r="A222" s="25" t="s">
         <v>1700</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="42"/>
-      <c r="D221" s="43"/>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
-      <c r="A222" s="6" t="s">
+      <c r="B222" s="26"/>
+      <c r="C222" s="42"/>
+      <c r="D222" s="43"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1">
+      <c r="A223" s="6" t="s">
         <v>1681</v>
       </c>
-      <c r="B222" s="24" t="s">
+      <c r="B223" s="24" t="s">
         <v>1667</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>1668</v>
-      </c>
-      <c r="D222" s="38" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
-      <c r="A223" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B223" s="18" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>1621</v>
       </c>
       <c r="D223" s="38" t="s">
         <v>1669</v>
@@ -31195,10 +31285,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>1670</v>
+        <v>1704</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>1671</v>
+        <v>1621</v>
       </c>
       <c r="D224" s="38" t="s">
         <v>1669</v>
@@ -31209,39 +31299,38 @@
         <v>1</v>
       </c>
       <c r="B225" s="18" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D225" s="38" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1">
+      <c r="A226" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="18" t="s">
         <v>1672</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C226" s="9" t="s">
         <v>1622</v>
-      </c>
-      <c r="D225" s="41" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1">
-      <c r="A226" s="66" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>1705</v>
       </c>
       <c r="D226" s="41" t="s">
         <v>1669</v>
       </c>
-      <c r="E226"/>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1">
       <c r="A227" s="66" t="s">
-        <v>1141</v>
+        <v>1690</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C227" s="31" t="s">
-        <v>1718</v>
+        <v>1691</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>1705</v>
       </c>
       <c r="D227" s="41" t="s">
         <v>1669</v>
@@ -31249,28 +31338,29 @@
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1">
-      <c r="A228" s="8" t="s">
-        <v>1682</v>
+      <c r="A228" s="66" t="s">
+        <v>1141</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>1673</v>
+        <v>1717</v>
+      </c>
+      <c r="C228" s="31" t="s">
+        <v>1718</v>
       </c>
       <c r="D228" s="41" t="s">
         <v>1669</v>
       </c>
+      <c r="E228"/>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1">
       <c r="A229" s="8" t="s">
         <v>1682</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D229" s="41" t="s">
         <v>1669</v>
@@ -31278,13 +31368,13 @@
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1">
       <c r="A230" s="8" t="s">
-        <v>1</v>
+        <v>1682</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>1575</v>
+        <v>1676</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>1675</v>
       </c>
       <c r="D230" s="41" t="s">
         <v>1669</v>
@@ -31295,24 +31385,24 @@
         <v>1</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C231" s="31" t="s">
-        <v>1577</v>
+        <v>1677</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>1575</v>
       </c>
       <c r="D231" s="41" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1">
-      <c r="A232" s="66" t="s">
-        <v>1680</v>
+      <c r="A232" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>1651</v>
+        <v>1678</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>1577</v>
       </c>
       <c r="D232" s="41" t="s">
         <v>1669</v>
@@ -31323,10 +31413,10 @@
         <v>1680</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C233" s="31" t="s">
-        <v>1624</v>
+        <v>140</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>1651</v>
       </c>
       <c r="D233" s="41" t="s">
         <v>1669</v>
@@ -31337,24 +31427,24 @@
         <v>1680</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>1559</v>
+        <v>1679</v>
+      </c>
+      <c r="C234" s="31" t="s">
+        <v>1624</v>
       </c>
       <c r="D234" s="41" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1">
-      <c r="A235" s="8" t="s">
-        <v>1682</v>
+      <c r="A235" s="66" t="s">
+        <v>1680</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C235" s="31" t="s">
-        <v>1623</v>
+        <v>1683</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>1559</v>
       </c>
       <c r="D235" s="41" t="s">
         <v>1669</v>
@@ -31365,10 +31455,10 @@
         <v>1682</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>1633</v>
+        <v>1684</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>1623</v>
       </c>
       <c r="D236" s="41" t="s">
         <v>1669</v>
@@ -31376,13 +31466,13 @@
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1">
       <c r="A237" s="8" t="s">
-        <v>1</v>
+        <v>1682</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C237" s="31" t="s">
-        <v>1726</v>
+        <v>1685</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>1633</v>
       </c>
       <c r="D237" s="41" t="s">
         <v>1669</v>
@@ -31393,39 +31483,38 @@
         <v>1</v>
       </c>
       <c r="B238" s="18" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C238" s="31" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1">
+      <c r="A239" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="18" t="s">
         <v>1687</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C239" s="9" t="s">
         <v>1563</v>
-      </c>
-      <c r="D238" s="38" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1">
-      <c r="A239" s="66" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>1565</v>
       </c>
       <c r="D239" s="38" t="s">
         <v>1669</v>
       </c>
-      <c r="E239"/>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1">
       <c r="A240" s="66" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D240" s="38" t="s">
         <v>1669</v>
@@ -31437,10 +31526,10 @@
         <v>1690</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D241" s="38" t="s">
         <v>1669</v>
@@ -31452,10 +31541,10 @@
         <v>1690</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D242" s="38" t="s">
         <v>1669</v>
@@ -31467,10 +31556,10 @@
         <v>1690</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D243" s="38" t="s">
         <v>1669</v>
@@ -31479,44 +31568,43 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1">
       <c r="A244" s="66" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D244" s="38" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1">
+      <c r="A245" s="66" t="s">
         <v>1141</v>
       </c>
-      <c r="B244" s="24" t="s">
+      <c r="B245" s="24" t="s">
         <v>2000</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C245" s="9" t="s">
         <v>2001</v>
       </c>
-      <c r="D244" s="38" t="s">
+      <c r="D245" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="1:6" s="126" customFormat="1" ht="15" customHeight="1">
-      <c r="A245" s="122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="127" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C245" s="123" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D245" s="38" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E245" s="124"/>
-      <c r="F245" s="125"/>
+      <c r="E245"/>
     </row>
     <row r="246" spans="1:6" s="126" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="122" t="s">
         <v>1</v>
       </c>
       <c r="B246" s="127" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C246" s="123" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D246" s="38" t="s">
         <v>1669</v>
@@ -31529,10 +31617,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="127" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C247" s="123" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D247" s="38" t="s">
         <v>1669</v>
@@ -31540,43 +31628,45 @@
       <c r="E247" s="124"/>
       <c r="F247" s="125"/>
     </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="32"/>
-    </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1">
-      <c r="A249" s="27" t="s">
+    <row r="248" spans="1:6" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A248" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="127" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C248" s="123" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D248" s="38" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E248" s="124"/>
+      <c r="F248" s="125"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="32"/>
+    </row>
+    <row r="250" spans="1:6" ht="15" customHeight="1">
+      <c r="A250" s="27" t="s">
         <v>1778</v>
       </c>
-      <c r="B249" s="26"/>
-      <c r="C249" s="42"/>
-      <c r="D249" s="43"/>
-    </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1">
-      <c r="A250" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C250" s="33" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D250" s="38" t="s">
-        <v>1669</v>
-      </c>
+      <c r="B250" s="26"/>
+      <c r="C250" s="42"/>
+      <c r="D250" s="43"/>
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1">
       <c r="A251" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>1758</v>
+        <v>1755</v>
+      </c>
+      <c r="C251" s="33" t="s">
+        <v>1779</v>
       </c>
       <c r="D251" s="38" t="s">
         <v>1669</v>
@@ -31587,10 +31677,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>1780</v>
+        <v>1757</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>1790</v>
+        <v>1758</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>1669</v>
@@ -31601,24 +31691,24 @@
         <v>1</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>1790</v>
       </c>
-      <c r="D253" s="41" t="s">
+      <c r="D253" s="38" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1">
       <c r="A254" s="8" t="s">
-        <v>1682</v>
+        <v>1</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D254" s="41" t="s">
         <v>1669</v>
@@ -31629,10 +31719,10 @@
         <v>1682</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D255" s="41" t="s">
         <v>1669</v>
@@ -31640,13 +31730,13 @@
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1">
       <c r="A256" s="8" t="s">
-        <v>1</v>
+        <v>1682</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="D256" s="41" t="s">
         <v>1669</v>
@@ -31657,54 +31747,54 @@
         <v>1</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D257" s="41" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="32"/>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
-      <c r="A259" s="25" t="s">
+    <row r="258" spans="1:4" ht="15" customHeight="1">
+      <c r="A258" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D258" s="41" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="32"/>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1">
+      <c r="A260" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="B259" s="26"/>
-      <c r="C259" s="5" t="s">
+      <c r="B260" s="26"/>
+      <c r="C260" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D259" s="32"/>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
-      <c r="A260" s="6" t="s">
+      <c r="D260" s="32"/>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1">
+      <c r="A261" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="29" t="s">
+      <c r="B261" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C260" s="33" t="s">
+      <c r="C261" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="D260" s="67" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
-      <c r="A261" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="65" t="s">
-        <v>858</v>
-      </c>
-      <c r="C261" s="31" t="s">
-        <v>1124</v>
       </c>
       <c r="D261" s="67" t="s">
         <v>889</v>
@@ -31715,10 +31805,10 @@
         <v>1</v>
       </c>
       <c r="B262" s="65" t="s">
-        <v>1128</v>
+        <v>858</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D262" s="67" t="s">
         <v>889</v>
@@ -31728,11 +31818,11 @@
       <c r="A263" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B263" s="18" t="s">
-        <v>1487</v>
+      <c r="B263" s="65" t="s">
+        <v>1128</v>
       </c>
       <c r="C263" s="31" t="s">
-        <v>1488</v>
+        <v>1126</v>
       </c>
       <c r="D263" s="67" t="s">
         <v>889</v>
@@ -31743,12 +31833,12 @@
         <v>1</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>285</v>
+        <v>1487</v>
       </c>
       <c r="C264" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D264" s="38" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D264" s="67" t="s">
         <v>889</v>
       </c>
     </row>
@@ -31757,10 +31847,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>1521</v>
+        <v>285</v>
       </c>
       <c r="C265" s="31" t="s">
-        <v>1522</v>
+        <v>873</v>
       </c>
       <c r="D265" s="38" t="s">
         <v>889</v>
@@ -31771,10 +31861,10 @@
         <v>1</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>286</v>
+        <v>1521</v>
       </c>
       <c r="C266" s="31" t="s">
-        <v>874</v>
+        <v>1522</v>
       </c>
       <c r="D266" s="38" t="s">
         <v>889</v>
@@ -31785,10 +31875,10 @@
         <v>1</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D267" s="38" t="s">
         <v>889</v>
@@ -31799,10 +31889,10 @@
         <v>1</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C268" s="31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D268" s="38" t="s">
         <v>889</v>
@@ -31812,11 +31902,11 @@
       <c r="A269" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B269" s="24" t="s">
-        <v>1889</v>
+      <c r="B269" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>1890</v>
+        <v>876</v>
       </c>
       <c r="D269" s="38" t="s">
         <v>889</v>
@@ -31826,11 +31916,11 @@
       <c r="A270" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="18" t="s">
-        <v>1519</v>
+      <c r="B270" s="24" t="s">
+        <v>1889</v>
       </c>
       <c r="C270" s="31" t="s">
-        <v>1520</v>
+        <v>1890</v>
       </c>
       <c r="D270" s="38" t="s">
         <v>889</v>
@@ -31841,10 +31931,10 @@
         <v>1</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>1819</v>
+        <v>1519</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>1820</v>
+        <v>1520</v>
       </c>
       <c r="D271" s="38" t="s">
         <v>889</v>
@@ -31855,13 +31945,13 @@
         <v>1</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>785</v>
+        <v>1819</v>
+      </c>
+      <c r="C272" s="31" t="s">
+        <v>1820</v>
       </c>
       <c r="D272" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
@@ -31869,10 +31959,10 @@
         <v>1</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>385</v>
+        <v>786</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>785</v>
       </c>
       <c r="D273" s="38" t="s">
         <v>890</v>
@@ -31883,10 +31973,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C274" s="31" t="s">
-        <v>1954</v>
+        <v>293</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="D274" s="38" t="s">
         <v>890</v>
@@ -31897,10 +31987,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>386</v>
+        <v>294</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>1954</v>
       </c>
       <c r="D275" s="38" t="s">
         <v>890</v>
@@ -31911,10 +32001,10 @@
         <v>1</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C276" s="31" t="s">
-        <v>1954</v>
+        <v>295</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="D276" s="38" t="s">
         <v>890</v>
@@ -31925,10 +32015,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D277" s="38" t="s">
         <v>890</v>
@@ -31939,60 +32029,62 @@
         <v>1</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D278" s="38" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
-      <c r="A279" s="19" t="s">
+      <c r="A279" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C279" s="31" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D279" s="38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1">
+      <c r="A280" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B280" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C279" s="31" t="s">
+      <c r="C280" s="31" t="s">
         <v>1957</v>
       </c>
-      <c r="D279" s="38"/>
-    </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
-      <c r="A280" s="8" t="s">
+      <c r="D280" s="38"/>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1">
+      <c r="A281" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B281" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C280" s="31" t="s">
+      <c r="C281" s="31" t="s">
         <v>1958</v>
       </c>
-      <c r="D280" s="38"/>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
-      <c r="A281" s="19" t="s">
+      <c r="D281" s="38"/>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1">
+      <c r="A282" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B282" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C281" s="31" t="s">
+      <c r="C282" s="31" t="s">
         <v>1959</v>
-      </c>
-      <c r="D281" s="38"/>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
-      <c r="A282" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C282" s="31" t="s">
-        <v>1960</v>
       </c>
       <c r="D282" s="38"/>
     </row>
@@ -32000,91 +32092,89 @@
       <c r="A283" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B283" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D283" s="38" t="s">
-        <v>890</v>
-      </c>
+      <c r="B283" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C283" s="31" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D283" s="38"/>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B284" s="18" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C284" s="31" t="s">
-        <v>1826</v>
+      <c r="B284" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="D284" s="38" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
-      <c r="A285" s="19" t="s">
+      <c r="A285" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1">
+      <c r="A286" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B286" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C285" s="9" t="s">
+      <c r="C286" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D285" s="38"/>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
-      <c r="A286" s="8" t="s">
+      <c r="D286" s="38"/>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1">
+      <c r="A287" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B287" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C286" s="9" t="s">
+      <c r="C287" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D287" s="38" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
-      <c r="A287" s="19" t="s">
+    <row r="288" spans="1:4" ht="15" customHeight="1">
+      <c r="A288" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="18" t="s">
+      <c r="B288" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C287" s="9" t="s">
+      <c r="C288" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D287" s="38"/>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
-      <c r="A288" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="24" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D288" s="38" t="s">
-        <v>890</v>
-      </c>
+      <c r="D288" s="38"/>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B289" s="18" t="s">
-        <v>311</v>
+      <c r="B289" s="24" t="s">
+        <v>1529</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D289" s="38" t="s">
         <v>890</v>
@@ -32095,36 +32185,36 @@
         <v>1</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D290" s="38"/>
+        <v>312</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>1751</v>
+        <v>313</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>890</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D291" s="38"/>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D292" s="38" t="s">
         <v>890</v>
@@ -32135,13 +32225,13 @@
         <v>1</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C293" s="31" t="s">
-        <v>1835</v>
+        <v>1754</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>1753</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>1833</v>
+        <v>890</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
@@ -32149,10 +32239,10 @@
         <v>1</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D294" s="38" t="s">
         <v>1833</v>
@@ -32163,22 +32253,24 @@
         <v>1</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D295" s="38"/>
+        <v>1837</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D295" s="38" t="s">
+        <v>1833</v>
+      </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D296" s="38"/>
     </row>
@@ -32187,10 +32279,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>1867</v>
+        <v>1757</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>1866</v>
+        <v>1758</v>
       </c>
       <c r="D297" s="38"/>
     </row>
@@ -32199,10 +32291,10 @@
         <v>1</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>315</v>
+        <v>1867</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>316</v>
+        <v>1866</v>
       </c>
       <c r="D298" s="38"/>
     </row>
@@ -32211,10 +32303,10 @@
         <v>1</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>387</v>
+        <v>315</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="D299" s="38"/>
     </row>
@@ -32223,10 +32315,10 @@
         <v>1</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>918</v>
+        <v>317</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>806</v>
+        <v>387</v>
       </c>
       <c r="D300" s="38"/>
     </row>
@@ -32235,64 +32327,62 @@
         <v>1</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="D301" s="38"/>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1">
+      <c r="A302" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B302" s="18" t="s">
         <v>1840</v>
       </c>
-      <c r="C301" s="10" t="s">
+      <c r="C302" s="10" t="s">
         <v>1841</v>
       </c>
-      <c r="D301" s="38"/>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="44"/>
-    </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
-      <c r="A303" s="25" t="s">
+      <c r="D302" s="38"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="44"/>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="A304" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="B303" s="26"/>
-      <c r="C303" s="5" t="s">
+      <c r="B304" s="26"/>
+      <c r="C304" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D303" s="44"/>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
-      <c r="A304" s="6" t="s">
+      <c r="D304" s="44"/>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="A305" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B304" s="17" t="s">
+      <c r="B305" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C305" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D304" s="38"/>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
-      <c r="A305" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B305" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D305" s="38" t="s">
-        <v>890</v>
-      </c>
+      <c r="D305" s="38"/>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1">
       <c r="A306" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B306" s="18" t="s">
-        <v>271</v>
+      <c r="B306" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D306" s="38" t="s">
         <v>890</v>
@@ -32302,11 +32392,11 @@
       <c r="A307" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B307" s="30" t="s">
-        <v>272</v>
+      <c r="B307" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D307" s="38" t="s">
         <v>890</v>
@@ -32316,11 +32406,11 @@
       <c r="A308" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B308" s="18" t="s">
-        <v>273</v>
+      <c r="B308" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D308" s="38" t="s">
         <v>890</v>
@@ -32331,10 +32421,10 @@
         <v>1</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D309" s="38" t="s">
         <v>890</v>
@@ -32345,63 +32435,63 @@
         <v>1</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D310" s="38"/>
+        <v>283</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="A311" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B311" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D311" s="38"/>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1">
+      <c r="A312" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C311" s="9" t="s">
+      <c r="C312" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D311" s="38" t="s">
+      <c r="D312" s="38" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="D312" s="44"/>
-    </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
-      <c r="A313" s="27" t="s">
+    <row r="313" spans="1:4">
+      <c r="D313" s="44"/>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1">
+      <c r="A314" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="B313" s="26"/>
-      <c r="C313" s="5" t="s">
+      <c r="B314" s="26"/>
+      <c r="C314" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D313" s="44"/>
-    </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
-      <c r="A314" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B314" s="23" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D314" s="38" t="s">
-        <v>890</v>
-      </c>
+      <c r="D314" s="44"/>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="A315" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D315" s="38" t="s">
         <v>890</v>
@@ -32412,24 +32502,24 @@
         <v>1</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>749</v>
+        <v>1930</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>258</v>
+        <v>1927</v>
       </c>
       <c r="D316" s="38" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B317" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>259</v>
+      <c r="B317" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="D317" s="38" t="s">
         <v>890</v>
@@ -32440,10 +32530,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D318" s="38" t="s">
         <v>890</v>
@@ -32453,11 +32543,11 @@
       <c r="A319" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B319" s="18" t="s">
-        <v>261</v>
+      <c r="B319" s="24" t="s">
+        <v>751</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D319" s="38" t="s">
         <v>890</v>
@@ -32468,10 +32558,10 @@
         <v>1</v>
       </c>
       <c r="B320" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D320" s="38" t="s">
         <v>890</v>
@@ -32482,36 +32572,36 @@
         <v>1</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D321" s="38"/>
+        <v>264</v>
+      </c>
+      <c r="D321" s="38" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1">
       <c r="A322" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="D322" s="38" t="s">
-        <v>890</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D322" s="38"/>
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1">
       <c r="A323" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>734</v>
+        <v>267</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D323" s="38" t="s">
         <v>890</v>
@@ -32522,10 +32612,10 @@
         <v>1</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D324" s="38" t="s">
         <v>890</v>
@@ -32536,10 +32626,10 @@
         <v>1</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D325" s="38" t="s">
         <v>890</v>
@@ -32550,10 +32640,10 @@
         <v>1</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D326" s="38" t="s">
         <v>890</v>
@@ -32564,10 +32654,10 @@
         <v>1</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D327" s="38" t="s">
         <v>890</v>
@@ -32578,10 +32668,10 @@
         <v>1</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D328" s="38" t="s">
         <v>890</v>
@@ -32592,10 +32682,10 @@
         <v>1</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D329" s="38" t="s">
         <v>890</v>
@@ -32606,10 +32696,10 @@
         <v>1</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D330" s="38" t="s">
         <v>890</v>
@@ -32620,10 +32710,10 @@
         <v>1</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D331" s="38" t="s">
         <v>890</v>
@@ -32634,10 +32724,10 @@
         <v>1</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D332" s="38" t="s">
         <v>890</v>
@@ -32648,12 +32738,26 @@
         <v>1</v>
       </c>
       <c r="B333" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D333" s="38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" customHeight="1">
+      <c r="A334" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="C333" s="9" t="s">
+      <c r="C334" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="D333" s="38" t="s">
+      <c r="D334" s="38" t="s">
         <v>890</v>
       </c>
     </row>
@@ -32673,310 +32777,311 @@
     <hyperlink ref="B14" location="_scanr" display="scanr"/>
     <hyperlink ref="B15" location="_scanl1" display="scanl1"/>
     <hyperlink ref="B16" location="_scanr1" display="scanr1"/>
-    <hyperlink ref="B21" location="_swapVariant" display="swapVariant"/>
-    <hyperlink ref="B22" location="_changeLBound" display="changeLBound"/>
-    <hyperlink ref="C25" r:id="rId1" display="https://github.com/mYmd/VBA/blob/master/Haskell_1_Core.bas"/>
-    <hyperlink ref="C74" r:id="rId2" display="https://github.com/mYmd/VBA/blob/master/Haskell_2_stdFun.bas"/>
-    <hyperlink ref="C129" r:id="rId3" display="https://github.com/mYmd/VBA/blob/master/Haskell_3_printM.bas"/>
-    <hyperlink ref="C135" r:id="rId4" display="https://github.com/mYmd/VBA/blob/master/Haskell_4_vector.bas"/>
-    <hyperlink ref="C191" r:id="rId5" display="https://github.com/mYmd/VBA/blob/master/Haskell_5_sort.bas"/>
-    <hyperlink ref="C313" r:id="rId6" display="https://github.com/mYmd/VBA/blob/master/misc_math.bas"/>
-    <hyperlink ref="C303" r:id="rId7" display="https://github.com/mYmd/VBA/blob/master/misc_random.bas"/>
-    <hyperlink ref="C259" r:id="rId8" display="https://github.com/mYmd/VBA/blob/master/misc_utility"/>
-    <hyperlink ref="B26" location="_moveVariant" display="moveVariant"/>
-    <hyperlink ref="B27" location="_ph_0" display="ph_0"/>
-    <hyperlink ref="B28" location="_ph_1" display="ph_1"/>
-    <hyperlink ref="B29" location="_ph_2" display="ph_2"/>
-    <hyperlink ref="B30" location="_yield_0" display="yield_0"/>
-    <hyperlink ref="B31" location="_yield_1" display="yield_1"/>
-    <hyperlink ref="B32" location="_yield_2" display="yield_2"/>
-    <hyperlink ref="B33" location="_make_funPointer" display="make_funPointer"/>
-    <hyperlink ref="B34" location="_make_funPointer_with_2nd_Default" display="make_funPointer_with_2nd_Default"/>
-    <hyperlink ref="B35" location="_make_funPointer_with_3_parameters" display="make_funPointer_with_3_parameters"/>
-    <hyperlink ref="B36" location="_is_bindFun" display="is_bindFun"/>
-    <hyperlink ref="B37" location="_bind1st" display="bind1st"/>
-    <hyperlink ref="B38" location="_bind2nd" display="bind2nd"/>
-    <hyperlink ref="B39" location="_swap1st" display="swap1st"/>
-    <hyperlink ref="B40" location="_swap2nd" display="swap2nd"/>
-    <hyperlink ref="B41" location="_mapF" display="Function"/>
-    <hyperlink ref="B42" location="_mapF_swap" display="_mapF_swap"/>
-    <hyperlink ref="B43" location="_applyFun" display="_applyFun"/>
-    <hyperlink ref="B44" location="_setParam" display="_setParam"/>
-    <hyperlink ref="B45" location="_foldl_Funs" display="_foldl_Funs"/>
-    <hyperlink ref="B46" location="_scanl_Funs" display="_scanl_Funs"/>
-    <hyperlink ref="B47" location="_foldr_Funs" display="_foldr_Funs"/>
-    <hyperlink ref="B48" location="_scanr_Funs" display="_scanr_Funs"/>
-    <hyperlink ref="B49" location="_applyFun2by2" display="_applyFun2by2"/>
-    <hyperlink ref="B50" location="_setParam2by2" display="_setParam2by2"/>
-    <hyperlink ref="B51" location="_count_if" display="_count_if"/>
-    <hyperlink ref="B52" location="_find_pred" display="_find_pred"/>
-    <hyperlink ref="B53" location="_repeat_while" display="_repeat_while"/>
-    <hyperlink ref="B54" location="_repeat_while_not" display="_repeat_while_not"/>
-    <hyperlink ref="B55" location="_generate_while" display="_generate_while"/>
-    <hyperlink ref="B56" location="_generate_while_not" display="_generate_while_not"/>
-    <hyperlink ref="B65" location="_foldl_zipWith" display="_foldl_zipWith"/>
-    <hyperlink ref="B72" location="_scanr1_zipWith" display="_scanr1_zipWith"/>
-    <hyperlink ref="B71" location="_scanl1_zipWith" display="_scanl1_zipWith"/>
-    <hyperlink ref="B70" location="_scanr_zipWith" display="_scanr_zipWith"/>
-    <hyperlink ref="B69" location="_scanl_zipWith" display="_scanl_zipWith"/>
-    <hyperlink ref="B68" location="_foldr1_zipWith" display="_foldr1_zipWith"/>
-    <hyperlink ref="B67" location="_foldr_zipWith" display="_foldr_zipWith"/>
-    <hyperlink ref="B66" location="_foldl1_zipWith" display="_foldl1_zipWith"/>
-    <hyperlink ref="B76" location="_firstArg" display="_firstArg"/>
-    <hyperlink ref="B77" location="_secondArg" display="_secondArg"/>
-    <hyperlink ref="B79" location="_getNth" display="_getNth"/>
-    <hyperlink ref="B80" location="_getNth_b" display="_getNth_b"/>
-    <hyperlink ref="B81" location="_setNth_b" display="_setNth_b"/>
-    <hyperlink ref="B82" location="_setNth_move" display="_setNth_move"/>
-    <hyperlink ref="B83" location="_setNth_b_move" display="_setNth_b_move"/>
-    <hyperlink ref="B84" location="_move_many" display="_move_many"/>
-    <hyperlink ref="B85" location="_move_back" display="_move_back"/>
-    <hyperlink ref="B87" location="_rowSize" display="_rowSize"/>
-    <hyperlink ref="B88" location="_colSize" display="_colSize"/>
-    <hyperlink ref="B127" location="_is_valid" display="_is_valid"/>
-    <hyperlink ref="B89" location="_sizeof" display="_sizeof"/>
-    <hyperlink ref="B90" location="_p_constant" display="_p_constant"/>
-    <hyperlink ref="B91" location="_p_true" display="_p_true"/>
-    <hyperlink ref="B92" location="_p_false" display="_p_false"/>
-    <hyperlink ref="B93" location="_if_else" display="_if_else"/>
-    <hyperlink ref="B94" location="_replaceNull" display="_replaceNull"/>
-    <hyperlink ref="B95" location="_replaceEmpty" display="_replaceEmpty"/>
-    <hyperlink ref="B97" location="_expN" display="_expN"/>
-    <hyperlink ref="B98" location="_logN" display="_logN"/>
-    <hyperlink ref="B99" location="_absD" display="_absD"/>
-    <hyperlink ref="B100" location="_plus" display="_plus"/>
-    <hyperlink ref="B101" location="_minus" display="_minus"/>
-    <hyperlink ref="B102" location="_mult" display="_mult"/>
-    <hyperlink ref="B103" location="_divide" display="_divide"/>
-    <hyperlink ref="B104" location="_poly" display="_poly"/>
-    <hyperlink ref="B105" location="_min_fun" display="_min_fun"/>
-    <hyperlink ref="B106" location="_max_fun" display="_max_fun"/>
-    <hyperlink ref="B107" location="_CLng_" display="_CLng_"/>
-    <hyperlink ref="B108" location="_CDbl_" display="_CDbl_"/>
-    <hyperlink ref="B109" location="_CStr_" display="_CStr_"/>
-    <hyperlink ref="B110" location="_str_len" display="_str_len"/>
-    <hyperlink ref="B111" location="_str_left" display="_str_left"/>
-    <hyperlink ref="B112" location="_str_right" display="_str_right"/>
-    <hyperlink ref="B113" location="_str_mid" display="_str_mid"/>
-    <hyperlink ref="B114" location="_str_cat" display="_str_cat"/>
-    <hyperlink ref="B115" location="_splitFun" display="_splitFun"/>
-    <hyperlink ref="B116" location="_joinFun" display="_joinFun"/>
-    <hyperlink ref="B117" location="_gcm" display="_gcm"/>
-    <hyperlink ref="B118" location="_lcm" display="_lcm"/>
-    <hyperlink ref="B119" location="_equal" display="_equal"/>
-    <hyperlink ref="B120" location="_notEqual" display="_notEqual"/>
-    <hyperlink ref="B121" location="_less" display="_less"/>
-    <hyperlink ref="B122" location="_less_equal" display="_less_equal"/>
-    <hyperlink ref="B123" location="_greater" display="_greater"/>
-    <hyperlink ref="B124" location="_greater_equal" display="_greater_equal"/>
-    <hyperlink ref="B125" location="_is_null" display="_is_null"/>
-    <hyperlink ref="B126" location="_is_empty" display="_is_empty"/>
-    <hyperlink ref="B130" location="_printS" display="_printS"/>
-    <hyperlink ref="B131" location="_printM" display="_printM"/>
-    <hyperlink ref="B132" location="_dumpFun" display="_dumpFun"/>
-    <hyperlink ref="B133" location="_printM_" display="_printM_"/>
-    <hyperlink ref="B136" location="_a_rows" display="_a_rows"/>
-    <hyperlink ref="B137" location="_a_cols" display="_a_cols"/>
-    <hyperlink ref="B138" location="_repeat" display="_repeat"/>
-    <hyperlink ref="B139" location="_iota" display="_iota"/>
-    <hyperlink ref="B140" location="_a__a" display="_a__a"/>
-    <hyperlink ref="B141" location="_a__o" display="_a__o"/>
-    <hyperlink ref="B142" location="_o__a" display="_o__a"/>
-    <hyperlink ref="B143" location="_o__o" display="_o__o"/>
-    <hyperlink ref="B189" location="_product_set" display="_product_set"/>
-    <hyperlink ref="B185" location="_cons" display="_cons"/>
-    <hyperlink ref="B184" location="_makePair" display="_makePair"/>
-    <hyperlink ref="B183" location="_makeSole" display="_makeSole"/>
-    <hyperlink ref="B180" location="_zipC" display="_zipC"/>
-    <hyperlink ref="B179" location="_zipR" display="_zipR"/>
-    <hyperlink ref="B146" location="_vector" display="_vector"/>
-    <hyperlink ref="B145" location="_tailN" display="_tailN"/>
-    <hyperlink ref="B144" location="_headN" display="_headN"/>
-    <hyperlink ref="B147" location="_reverse" display="_reverse"/>
-    <hyperlink ref="B148" location="_rotate" display="_rotate"/>
-    <hyperlink ref="B149" location="_rotation" display="_rotation"/>
-    <hyperlink ref="B150" location="_rotate_move" display="_rotate_move"/>
-    <hyperlink ref="B151" location="_selectRow" display="_selectRow"/>
-    <hyperlink ref="B152" location="_selectCol" display="_selectCol"/>
-    <hyperlink ref="B153" location="_makeM" display="_makeM"/>
-    <hyperlink ref="B154" location="_fillM" display="_fillM"/>
-    <hyperlink ref="B155" location="_fillM_move" display="_fillM_move"/>
-    <hyperlink ref="B156" location="_fillRow" display="_fillRow"/>
-    <hyperlink ref="B157" location="_fillRow_move" display="_fillRow_move"/>
-    <hyperlink ref="B177" location="_cross_zip" display="zipVs"/>
-    <hyperlink ref="B175" location="_zip" display="_zip"/>
-    <hyperlink ref="B174" location="_transpose" display="_transpose"/>
-    <hyperlink ref="B173" location="_catC" display="_catC"/>
-    <hyperlink ref="B172" location="_catR" display="_catR"/>
-    <hyperlink ref="B158" location="_fillCol" display="_fillCol"/>
-    <hyperlink ref="B159" location="_fillCol_move" display="_fillCol_move"/>
-    <hyperlink ref="B160" location="_fillPattern" display="_fillPattern"/>
-    <hyperlink ref="B161" location="_fillPattern_move" display="_fillPattern_move"/>
-    <hyperlink ref="B162" location="_subV" display="_subV"/>
-    <hyperlink ref="B163" location="_subV_if" display="_subV_if"/>
-    <hyperlink ref="B164" location="_subM" display="_subM"/>
-    <hyperlink ref="B165" location="_subM_if" display="_subM_if"/>
-    <hyperlink ref="B166" location="_filterR" display="_filterR"/>
-    <hyperlink ref="B167" location="_filterC" display="_filterC"/>
-    <hyperlink ref="B168" location="_catV" display="_catV"/>
-    <hyperlink ref="B170" location="_catVs" display="_catVs"/>
-    <hyperlink ref="B192" location="_sortIndex" display="_sortIndex"/>
-    <hyperlink ref="B193" location="_sortIndex_pred" display="_sortIndex_pred"/>
-    <hyperlink ref="B194" location="_permutate" display="_permutate"/>
-    <hyperlink ref="B195" location="_permutate_back" display="_permutate_back"/>
-    <hyperlink ref="B196" location="_lower_bound" display="_lower_bound"/>
-    <hyperlink ref="B198" location="_lower_bound_pred" display="_lower_bound_pred"/>
-    <hyperlink ref="B200" location="_upper_bound" display="_upper_bound"/>
-    <hyperlink ref="B202" location="_upper_bound_pred" display="_upper_bound_pred"/>
-    <hyperlink ref="B204" location="_equal_range" display="_equal_range"/>
-    <hyperlink ref="B206" location="_equal_range_pred" display="_equal_range_pred"/>
-    <hyperlink ref="B208" location="_partition_points" display="_partition_points"/>
-    <hyperlink ref="B209" location="_partition_points_pred" display="_partition_points_pred"/>
-    <hyperlink ref="B316" location="_sin_fun" display="_sin_fun"/>
-    <hyperlink ref="B317" location="_cos_fun" display="_cos_fun"/>
-    <hyperlink ref="B318" location="_pow_fun" display="_pow_fun"/>
-    <hyperlink ref="B319" location="_make_polyCoef" display="_make_polyCoef"/>
-    <hyperlink ref="B320" location="_newton_method" display="_newton_method"/>
-    <hyperlink ref="B321" location="_integral_simpson" display="_integral_simpson"/>
-    <hyperlink ref="B322" location="_make_complex" display="_make_complex"/>
-    <hyperlink ref="B323" location="_make_complex_polar" display="_make_complex_polar"/>
-    <hyperlink ref="B324" location="_show_complex" display="_show_complex"/>
-    <hyperlink ref="B325" location="_show_complex_polar" display="_show_complex_polar"/>
-    <hyperlink ref="B333" location="_complex_arg" display="_complex_arg"/>
-    <hyperlink ref="B332" location="_complex_abs" display="_complex_abs"/>
-    <hyperlink ref="B331" location="_complex_abs2" display="_complex_abs2"/>
-    <hyperlink ref="B330" location="_complex_cnj" display="_complex_cnj"/>
-    <hyperlink ref="B329" location="_complex_divide" display="_complex_divide"/>
-    <hyperlink ref="B328" location="_complex_mult" display="_complex_mult"/>
-    <hyperlink ref="B327" location="_complex_minus" display="_complex_minus"/>
-    <hyperlink ref="B326" location="_complex_add" display="_complex_add"/>
-    <hyperlink ref="B304" location="_seed_Engine" display="_seed_Engine"/>
-    <hyperlink ref="B305" location="_uniform_int_dist" display="_uniform_int_dist"/>
-    <hyperlink ref="B306" location="_uniform_real_dist" display="_uniform_real_dist"/>
-    <hyperlink ref="B307" location="_normal_dist" display="_normal_dist"/>
-    <hyperlink ref="B308" location="_bernoulli_dist" display="_bernoulli_dist"/>
-    <hyperlink ref="B309" location="_discrete_dist" display="_discrete_dist"/>
-    <hyperlink ref="B310" location="_random_iota" display="_random_iota"/>
-    <hyperlink ref="B311" location="_random_shuffle" display="_random_shuffle"/>
-    <hyperlink ref="B260" location="_p__n" display="_p__n"/>
-    <hyperlink ref="B264" location="_p_typename" display="_p_typename"/>
-    <hyperlink ref="B266" location="_p_format" display="_p_format"/>
-    <hyperlink ref="B267" location="_p_InStr" display="_p_InStr"/>
-    <hyperlink ref="B268" location="_p_InStrRev" display="_p_InStrRev"/>
-    <hyperlink ref="B272" location="_separate_string" display="_separate_string"/>
-    <hyperlink ref="B59" location="_p_foldl1" display="_p_foldl1"/>
-    <hyperlink ref="B60" location="_p_foldr1" display="_p_foldr1"/>
-    <hyperlink ref="B63" location="_p_scanl1" display="_p_scanl1"/>
-    <hyperlink ref="B64" location="_p_scanr1" display="_p_scanr1"/>
-    <hyperlink ref="B273" location="_subM_R" display="_subM_R"/>
-    <hyperlink ref="B274" location="_subM_R_b" display="_subM_R_b"/>
-    <hyperlink ref="B275" location="_subM_C" display="_subM_C"/>
-    <hyperlink ref="B276" location="_subM_C_b" display="_subM_C_b"/>
-    <hyperlink ref="B277" location="_selectRow_b" display="_selectRow_b"/>
-    <hyperlink ref="B278" location="_selectCol_b" display="_selectCol_b"/>
-    <hyperlink ref="B279" location="_fillRow_b" display="_fillRow_b"/>
-    <hyperlink ref="B280" location="_fillRow_b_move" display="_fillRow_b_move"/>
-    <hyperlink ref="B281" location="_fillCol_b" display="_fillCol_b"/>
-    <hyperlink ref="B282" location="_fillCol_b_move" display="_fillCol_b_move"/>
-    <hyperlink ref="B285" location="_rowWise_change" display="_rowWise_change"/>
-    <hyperlink ref="B286" location="_rowWise_change_move" display="_rowWise_change_move"/>
-    <hyperlink ref="B287" location="_columnWise_change" display="_columnWise_change"/>
-    <hyperlink ref="B299" location="_group_by_partition_points" display="_group_by_partition_points"/>
-    <hyperlink ref="B298" location="_splitStr2Funs" display="_splitStr2Funs"/>
-    <hyperlink ref="B290" location="_equal_all_pred" display="_equal_all_pred"/>
-    <hyperlink ref="B289" location="_equal_all" display="_equal_all"/>
-    <hyperlink ref="B288" location="_columnWise_change_move" display="_columnWise_change_move"/>
-    <hyperlink ref="B261" location="_p_try" display="_p_try"/>
-    <hyperlink ref="B283" location="_adjacent_op" display="_adjacent_op"/>
+    <hyperlink ref="B22" location="_swapVariant" display="swapVariant"/>
+    <hyperlink ref="B23" location="_changeLBound" display="changeLBound"/>
+    <hyperlink ref="C26" r:id="rId1" display="https://github.com/mYmd/VBA/blob/master/Haskell_1_Core.bas"/>
+    <hyperlink ref="C75" r:id="rId2" display="https://github.com/mYmd/VBA/blob/master/Haskell_2_stdFun.bas"/>
+    <hyperlink ref="C130" r:id="rId3" display="https://github.com/mYmd/VBA/blob/master/Haskell_3_printM.bas"/>
+    <hyperlink ref="C136" r:id="rId4" display="https://github.com/mYmd/VBA/blob/master/Haskell_4_vector.bas"/>
+    <hyperlink ref="C192" r:id="rId5" display="https://github.com/mYmd/VBA/blob/master/Haskell_5_sort.bas"/>
+    <hyperlink ref="C314" r:id="rId6" display="https://github.com/mYmd/VBA/blob/master/misc_math.bas"/>
+    <hyperlink ref="C304" r:id="rId7" display="https://github.com/mYmd/VBA/blob/master/misc_random.bas"/>
+    <hyperlink ref="C260" r:id="rId8" display="https://github.com/mYmd/VBA/blob/master/misc_utility"/>
+    <hyperlink ref="B27" location="_moveVariant" display="moveVariant"/>
+    <hyperlink ref="B28" location="_ph_0" display="ph_0"/>
+    <hyperlink ref="B29" location="_ph_1" display="ph_1"/>
+    <hyperlink ref="B30" location="_ph_2" display="ph_2"/>
+    <hyperlink ref="B31" location="_yield_0" display="yield_0"/>
+    <hyperlink ref="B32" location="_yield_1" display="yield_1"/>
+    <hyperlink ref="B33" location="_yield_2" display="yield_2"/>
+    <hyperlink ref="B34" location="_make_funPointer" display="make_funPointer"/>
+    <hyperlink ref="B35" location="_make_funPointer_with_2nd_Default" display="make_funPointer_with_2nd_Default"/>
+    <hyperlink ref="B36" location="_make_funPointer_with_3_parameters" display="make_funPointer_with_3_parameters"/>
+    <hyperlink ref="B37" location="_is_bindFun" display="is_bindFun"/>
+    <hyperlink ref="B38" location="_bind1st" display="bind1st"/>
+    <hyperlink ref="B39" location="_bind2nd" display="bind2nd"/>
+    <hyperlink ref="B40" location="_swap1st" display="swap1st"/>
+    <hyperlink ref="B41" location="_swap2nd" display="swap2nd"/>
+    <hyperlink ref="B42" location="_mapF" display="Function"/>
+    <hyperlink ref="B43" location="_mapF_swap" display="_mapF_swap"/>
+    <hyperlink ref="B44" location="_applyFun" display="_applyFun"/>
+    <hyperlink ref="B45" location="_setParam" display="_setParam"/>
+    <hyperlink ref="B46" location="_foldl_Funs" display="_foldl_Funs"/>
+    <hyperlink ref="B47" location="_scanl_Funs" display="_scanl_Funs"/>
+    <hyperlink ref="B48" location="_foldr_Funs" display="_foldr_Funs"/>
+    <hyperlink ref="B49" location="_scanr_Funs" display="_scanr_Funs"/>
+    <hyperlink ref="B50" location="_applyFun2by2" display="_applyFun2by2"/>
+    <hyperlink ref="B51" location="_setParam2by2" display="_setParam2by2"/>
+    <hyperlink ref="B52" location="_count_if" display="_count_if"/>
+    <hyperlink ref="B53" location="_find_pred" display="_find_pred"/>
+    <hyperlink ref="B54" location="_repeat_while" display="_repeat_while"/>
+    <hyperlink ref="B55" location="_repeat_while_not" display="_repeat_while_not"/>
+    <hyperlink ref="B56" location="_generate_while" display="_generate_while"/>
+    <hyperlink ref="B57" location="_generate_while_not" display="_generate_while_not"/>
+    <hyperlink ref="B66" location="_foldl_zipWith" display="_foldl_zipWith"/>
+    <hyperlink ref="B73" location="_scanr1_zipWith" display="_scanr1_zipWith"/>
+    <hyperlink ref="B72" location="_scanl1_zipWith" display="_scanl1_zipWith"/>
+    <hyperlink ref="B71" location="_scanr_zipWith" display="_scanr_zipWith"/>
+    <hyperlink ref="B70" location="_scanl_zipWith" display="_scanl_zipWith"/>
+    <hyperlink ref="B69" location="_foldr1_zipWith" display="_foldr1_zipWith"/>
+    <hyperlink ref="B68" location="_foldr_zipWith" display="_foldr_zipWith"/>
+    <hyperlink ref="B67" location="_foldl1_zipWith" display="_foldl1_zipWith"/>
+    <hyperlink ref="B77" location="_firstArg" display="_firstArg"/>
+    <hyperlink ref="B78" location="_secondArg" display="_secondArg"/>
+    <hyperlink ref="B80" location="_getNth" display="_getNth"/>
+    <hyperlink ref="B81" location="_getNth_b" display="_getNth_b"/>
+    <hyperlink ref="B82" location="_setNth_b" display="_setNth_b"/>
+    <hyperlink ref="B83" location="_setNth_move" display="_setNth_move"/>
+    <hyperlink ref="B84" location="_setNth_b_move" display="_setNth_b_move"/>
+    <hyperlink ref="B85" location="_move_many" display="_move_many"/>
+    <hyperlink ref="B86" location="_move_back" display="_move_back"/>
+    <hyperlink ref="B88" location="_rowSize" display="_rowSize"/>
+    <hyperlink ref="B89" location="_colSize" display="_colSize"/>
+    <hyperlink ref="B128" location="_is_valid" display="_is_valid"/>
+    <hyperlink ref="B90" location="_sizeof" display="_sizeof"/>
+    <hyperlink ref="B91" location="_p_constant" display="_p_constant"/>
+    <hyperlink ref="B92" location="_p_true" display="_p_true"/>
+    <hyperlink ref="B93" location="_p_false" display="_p_false"/>
+    <hyperlink ref="B94" location="_if_else" display="_if_else"/>
+    <hyperlink ref="B95" location="_replaceNull" display="_replaceNull"/>
+    <hyperlink ref="B96" location="_replaceEmpty" display="_replaceEmpty"/>
+    <hyperlink ref="B98" location="_expN" display="_expN"/>
+    <hyperlink ref="B99" location="_logN" display="_logN"/>
+    <hyperlink ref="B100" location="_absD" display="_absD"/>
+    <hyperlink ref="B101" location="_plus" display="_plus"/>
+    <hyperlink ref="B102" location="_minus" display="_minus"/>
+    <hyperlink ref="B103" location="_mult" display="_mult"/>
+    <hyperlink ref="B104" location="_divide" display="_divide"/>
+    <hyperlink ref="B105" location="_poly" display="_poly"/>
+    <hyperlink ref="B106" location="_min_fun" display="_min_fun"/>
+    <hyperlink ref="B107" location="_max_fun" display="_max_fun"/>
+    <hyperlink ref="B108" location="_CLng_" display="_CLng_"/>
+    <hyperlink ref="B109" location="_CDbl_" display="_CDbl_"/>
+    <hyperlink ref="B110" location="_CStr_" display="_CStr_"/>
+    <hyperlink ref="B111" location="_str_len" display="_str_len"/>
+    <hyperlink ref="B112" location="_str_left" display="_str_left"/>
+    <hyperlink ref="B113" location="_str_right" display="_str_right"/>
+    <hyperlink ref="B114" location="_str_mid" display="_str_mid"/>
+    <hyperlink ref="B115" location="_str_cat" display="_str_cat"/>
+    <hyperlink ref="B116" location="_splitFun" display="_splitFun"/>
+    <hyperlink ref="B117" location="_joinFun" display="_joinFun"/>
+    <hyperlink ref="B118" location="_gcm" display="_gcm"/>
+    <hyperlink ref="B119" location="_lcm" display="_lcm"/>
+    <hyperlink ref="B120" location="_equal" display="_equal"/>
+    <hyperlink ref="B121" location="_notEqual" display="_notEqual"/>
+    <hyperlink ref="B122" location="_less" display="_less"/>
+    <hyperlink ref="B123" location="_less_equal" display="_less_equal"/>
+    <hyperlink ref="B124" location="_greater" display="_greater"/>
+    <hyperlink ref="B125" location="_greater_equal" display="_greater_equal"/>
+    <hyperlink ref="B126" location="_is_null" display="_is_null"/>
+    <hyperlink ref="B127" location="_is_empty" display="_is_empty"/>
+    <hyperlink ref="B131" location="_printS" display="_printS"/>
+    <hyperlink ref="B132" location="_printM" display="_printM"/>
+    <hyperlink ref="B133" location="_dumpFun" display="_dumpFun"/>
+    <hyperlink ref="B134" location="_printM_" display="_printM_"/>
+    <hyperlink ref="B137" location="_a_rows" display="_a_rows"/>
+    <hyperlink ref="B138" location="_a_cols" display="_a_cols"/>
+    <hyperlink ref="B139" location="_repeat" display="_repeat"/>
+    <hyperlink ref="B140" location="_iota" display="_iota"/>
+    <hyperlink ref="B141" location="_a__a" display="_a__a"/>
+    <hyperlink ref="B142" location="_a__o" display="_a__o"/>
+    <hyperlink ref="B143" location="_o__a" display="_o__a"/>
+    <hyperlink ref="B144" location="_o__o" display="_o__o"/>
+    <hyperlink ref="B190" location="_product_set" display="_product_set"/>
+    <hyperlink ref="B186" location="_cons" display="_cons"/>
+    <hyperlink ref="B185" location="_makePair" display="_makePair"/>
+    <hyperlink ref="B184" location="_makeSole" display="_makeSole"/>
+    <hyperlink ref="B181" location="_zipC" display="_zipC"/>
+    <hyperlink ref="B180" location="_zipR" display="_zipR"/>
+    <hyperlink ref="B147" location="_vector" display="_vector"/>
+    <hyperlink ref="B146" location="_tailN" display="_tailN"/>
+    <hyperlink ref="B145" location="_headN" display="_headN"/>
+    <hyperlink ref="B148" location="_reverse" display="_reverse"/>
+    <hyperlink ref="B149" location="_rotate" display="_rotate"/>
+    <hyperlink ref="B150" location="_rotation" display="_rotation"/>
+    <hyperlink ref="B151" location="_rotate_move" display="_rotate_move"/>
+    <hyperlink ref="B152" location="_selectRow" display="_selectRow"/>
+    <hyperlink ref="B153" location="_selectCol" display="_selectCol"/>
+    <hyperlink ref="B154" location="_makeM" display="_makeM"/>
+    <hyperlink ref="B155" location="_fillM" display="_fillM"/>
+    <hyperlink ref="B156" location="_fillM_move" display="_fillM_move"/>
+    <hyperlink ref="B157" location="_fillRow" display="_fillRow"/>
+    <hyperlink ref="B158" location="_fillRow_move" display="_fillRow_move"/>
+    <hyperlink ref="B178" location="_cross_zip" display="zipVs"/>
+    <hyperlink ref="B176" location="_zip" display="_zip"/>
+    <hyperlink ref="B175" location="_transpose" display="_transpose"/>
+    <hyperlink ref="B174" location="_catC" display="_catC"/>
+    <hyperlink ref="B173" location="_catR" display="_catR"/>
+    <hyperlink ref="B159" location="_fillCol" display="_fillCol"/>
+    <hyperlink ref="B160" location="_fillCol_move" display="_fillCol_move"/>
+    <hyperlink ref="B161" location="_fillPattern" display="_fillPattern"/>
+    <hyperlink ref="B162" location="_fillPattern_move" display="_fillPattern_move"/>
+    <hyperlink ref="B163" location="_subV" display="_subV"/>
+    <hyperlink ref="B164" location="_subV_if" display="_subV_if"/>
+    <hyperlink ref="B165" location="_subM" display="_subM"/>
+    <hyperlink ref="B166" location="_subM_if" display="_subM_if"/>
+    <hyperlink ref="B167" location="_filterR" display="_filterR"/>
+    <hyperlink ref="B168" location="_filterC" display="_filterC"/>
+    <hyperlink ref="B169" location="_catV" display="_catV"/>
+    <hyperlink ref="B171" location="_catVs" display="_catVs"/>
+    <hyperlink ref="B193" location="_sortIndex" display="_sortIndex"/>
+    <hyperlink ref="B194" location="_sortIndex_pred" display="_sortIndex_pred"/>
+    <hyperlink ref="B195" location="_permutate" display="_permutate"/>
+    <hyperlink ref="B196" location="_permutate_back" display="_permutate_back"/>
+    <hyperlink ref="B197" location="_lower_bound" display="_lower_bound"/>
+    <hyperlink ref="B199" location="_lower_bound_pred" display="_lower_bound_pred"/>
+    <hyperlink ref="B201" location="_upper_bound" display="_upper_bound"/>
+    <hyperlink ref="B203" location="_upper_bound_pred" display="_upper_bound_pred"/>
+    <hyperlink ref="B205" location="_equal_range" display="_equal_range"/>
+    <hyperlink ref="B207" location="_equal_range_pred" display="_equal_range_pred"/>
+    <hyperlink ref="B209" location="_partition_points" display="_partition_points"/>
+    <hyperlink ref="B210" location="_partition_points_pred" display="_partition_points_pred"/>
+    <hyperlink ref="B317" location="_sin_fun" display="_sin_fun"/>
+    <hyperlink ref="B318" location="_cos_fun" display="_cos_fun"/>
+    <hyperlink ref="B319" location="_pow_fun" display="_pow_fun"/>
+    <hyperlink ref="B320" location="_make_polyCoef" display="_make_polyCoef"/>
+    <hyperlink ref="B321" location="_newton_method" display="_newton_method"/>
+    <hyperlink ref="B322" location="_integral_simpson" display="_integral_simpson"/>
+    <hyperlink ref="B323" location="_make_complex" display="_make_complex"/>
+    <hyperlink ref="B324" location="_make_complex_polar" display="_make_complex_polar"/>
+    <hyperlink ref="B325" location="_show_complex" display="_show_complex"/>
+    <hyperlink ref="B326" location="_show_complex_polar" display="_show_complex_polar"/>
+    <hyperlink ref="B334" location="_complex_arg" display="_complex_arg"/>
+    <hyperlink ref="B333" location="_complex_abs" display="_complex_abs"/>
+    <hyperlink ref="B332" location="_complex_abs2" display="_complex_abs2"/>
+    <hyperlink ref="B331" location="_complex_cnj" display="_complex_cnj"/>
+    <hyperlink ref="B330" location="_complex_divide" display="_complex_divide"/>
+    <hyperlink ref="B329" location="_complex_mult" display="_complex_mult"/>
+    <hyperlink ref="B328" location="_complex_minus" display="_complex_minus"/>
+    <hyperlink ref="B327" location="_complex_add" display="_complex_add"/>
+    <hyperlink ref="B305" location="_seed_Engine" display="_seed_Engine"/>
+    <hyperlink ref="B306" location="_uniform_int_dist" display="_uniform_int_dist"/>
+    <hyperlink ref="B307" location="_uniform_real_dist" display="_uniform_real_dist"/>
+    <hyperlink ref="B308" location="_normal_dist" display="_normal_dist"/>
+    <hyperlink ref="B309" location="_bernoulli_dist" display="_bernoulli_dist"/>
+    <hyperlink ref="B310" location="_discrete_dist" display="_discrete_dist"/>
+    <hyperlink ref="B311" location="_random_iota" display="_random_iota"/>
+    <hyperlink ref="B312" location="_random_shuffle" display="_random_shuffle"/>
+    <hyperlink ref="B261" location="_p__n" display="_p__n"/>
+    <hyperlink ref="B265" location="_p_typename" display="_p_typename"/>
+    <hyperlink ref="B267" location="_p_format" display="_p_format"/>
+    <hyperlink ref="B268" location="_p_InStr" display="_p_InStr"/>
+    <hyperlink ref="B269" location="_p_InStrRev" display="_p_InStrRev"/>
+    <hyperlink ref="B273" location="_separate_string" display="_separate_string"/>
+    <hyperlink ref="B60" location="_p_foldl1" display="_p_foldl1"/>
+    <hyperlink ref="B61" location="_p_foldr1" display="_p_foldr1"/>
+    <hyperlink ref="B64" location="_p_scanl1" display="_p_scanl1"/>
+    <hyperlink ref="B65" location="_p_scanr1" display="_p_scanr1"/>
+    <hyperlink ref="B274" location="_subM_R" display="_subM_R"/>
+    <hyperlink ref="B275" location="_subM_R_b" display="_subM_R_b"/>
+    <hyperlink ref="B276" location="_subM_C" display="_subM_C"/>
+    <hyperlink ref="B277" location="_subM_C_b" display="_subM_C_b"/>
+    <hyperlink ref="B278" location="_selectRow_b" display="_selectRow_b"/>
+    <hyperlink ref="B279" location="_selectCol_b" display="_selectCol_b"/>
+    <hyperlink ref="B280" location="_fillRow_b" display="_fillRow_b"/>
+    <hyperlink ref="B281" location="_fillRow_b_move" display="_fillRow_b_move"/>
+    <hyperlink ref="B282" location="_fillCol_b" display="_fillCol_b"/>
+    <hyperlink ref="B283" location="_fillCol_b_move" display="_fillCol_b_move"/>
+    <hyperlink ref="B286" location="_rowWise_change" display="_rowWise_change"/>
+    <hyperlink ref="B287" location="_rowWise_change_move" display="_rowWise_change_move"/>
+    <hyperlink ref="B288" location="_columnWise_change" display="_columnWise_change"/>
+    <hyperlink ref="B300" location="_group_by_partition_points" display="_group_by_partition_points"/>
+    <hyperlink ref="B299" location="_splitStr2Funs" display="_splitStr2Funs"/>
+    <hyperlink ref="B291" location="_equal_all_pred" display="_equal_all_pred"/>
+    <hyperlink ref="B290" location="_equal_all" display="_equal_all"/>
+    <hyperlink ref="B289" location="_columnWise_change_move" display="_columnWise_change_move"/>
+    <hyperlink ref="B262" location="_p_try" display="_p_try"/>
+    <hyperlink ref="B284" location="_adjacent_op" display="_adjacent_op"/>
     <hyperlink ref="B7" location="_mapF_imple" display="_mapF_imple"/>
     <hyperlink ref="B17" location="_stdsort" display="_stdsort"/>
-    <hyperlink ref="B19" location="_find_best_imple" display="find_best_imple"/>
-    <hyperlink ref="B20" location="_repeat_imple" display="_repeat_imple"/>
-    <hyperlink ref="B262" location="_p_try_not" display="_p_try_not"/>
-    <hyperlink ref="B210" location="_less_dic" display="_less_dic"/>
-    <hyperlink ref="B211" location="_less_equal_dic" display="_less_equal_dic"/>
-    <hyperlink ref="B212" location="_greater_dic" display="_greater_dic"/>
-    <hyperlink ref="B213" location="_greater_equal_dic" display="_greater_equal_dic"/>
+    <hyperlink ref="B20" location="_find_best_imple" display="find_best_imple"/>
+    <hyperlink ref="B21" location="_repeat_imple" display="_repeat_imple"/>
+    <hyperlink ref="B263" location="_p_try_not" display="_p_try_not"/>
+    <hyperlink ref="B211" location="_less_dic" display="_less_dic"/>
+    <hyperlink ref="B212" location="_less_equal_dic" display="_less_equal_dic"/>
+    <hyperlink ref="B213" location="_greater_dic" display="_greater_dic"/>
+    <hyperlink ref="B214" location="_greater_equal_dic" display="_greater_equal_dic"/>
     <hyperlink ref="B1" location="_files" display="ファイル構成"/>
-    <hyperlink ref="B263" location="_p_try_less" display="_p_try_less"/>
-    <hyperlink ref="B265" location="_p_isNumeric" display="_p_isNumeric"/>
-    <hyperlink ref="B270" location="_p_StrConv" display="_p_StrConv"/>
-    <hyperlink ref="B222" location="_New_vh_stdvec" display="New"/>
-    <hyperlink ref="B223" location="_from_vh_stdvec" display="from"/>
-    <hyperlink ref="B224" location="_clear" display="_clear"/>
-    <hyperlink ref="B225" location="_free" display="_free"/>
-    <hyperlink ref="B228" location="_size" display="_size"/>
-    <hyperlink ref="B229" location="_capacity" display="_capacity"/>
-    <hyperlink ref="B230" location="_shrink" display="_shrink"/>
-    <hyperlink ref="B231" location="_erase_n" display="_erase_n"/>
-    <hyperlink ref="B232" location="_vec_printS" display="printS"/>
-    <hyperlink ref="B233" location="_vec_printM" display="_vec_printM"/>
-    <hyperlink ref="B234" location="_vec_printM_" display="_vec_printM_"/>
-    <hyperlink ref="B235" location="_val" display="_val"/>
-    <hyperlink ref="B236" location="_pop" display="_pop"/>
-    <hyperlink ref="B237" location="_push" display="_push"/>
-    <hyperlink ref="B238" location="_push_n" display="_push_n"/>
-    <hyperlink ref="B239" location="_push_array" display="_push_array"/>
-    <hyperlink ref="B226" location="_swap_vh_stdvec" display="swap"/>
-    <hyperlink ref="B240" location="_insert_empty" display="_insert_empty"/>
-    <hyperlink ref="B241" location="_push_back" display="_push_back"/>
-    <hyperlink ref="B242" location="_push_back_n" display="_push_back_n"/>
-    <hyperlink ref="B243" location="_push_back_array" display="_push_back_array"/>
+    <hyperlink ref="B264" location="_p_try_less" display="_p_try_less"/>
+    <hyperlink ref="B266" location="_p_isNumeric" display="_p_isNumeric"/>
+    <hyperlink ref="B271" location="_p_StrConv" display="_p_StrConv"/>
+    <hyperlink ref="B223" location="_New_vh_stdvec" display="New"/>
+    <hyperlink ref="B224" location="_from_vh_stdvec" display="from"/>
+    <hyperlink ref="B225" location="_clear" display="_clear"/>
+    <hyperlink ref="B226" location="_free" display="_free"/>
+    <hyperlink ref="B229" location="_size" display="_size"/>
+    <hyperlink ref="B230" location="_capacity" display="_capacity"/>
+    <hyperlink ref="B231" location="_shrink" display="_shrink"/>
+    <hyperlink ref="B232" location="_erase_n" display="_erase_n"/>
+    <hyperlink ref="B233" location="_vec_printS" display="printS"/>
+    <hyperlink ref="B234" location="_vec_printM" display="_vec_printM"/>
+    <hyperlink ref="B235" location="_vec_printM_" display="_vec_printM_"/>
+    <hyperlink ref="B236" location="_val" display="_val"/>
+    <hyperlink ref="B237" location="_pop" display="_pop"/>
+    <hyperlink ref="B238" location="_push" display="_push"/>
+    <hyperlink ref="B239" location="_push_n" display="_push_n"/>
+    <hyperlink ref="B240" location="_push_array" display="_push_array"/>
+    <hyperlink ref="B227" location="_swap_vh_stdvec" display="swap"/>
+    <hyperlink ref="B241" location="_insert_empty" display="_insert_empty"/>
+    <hyperlink ref="B242" location="_push_back" display="_push_back"/>
+    <hyperlink ref="B243" location="_push_back_n" display="_push_back_n"/>
+    <hyperlink ref="B244" location="_push_back_array" display="_push_back_array"/>
     <hyperlink ref="C2" r:id="rId9" display="https://github.com/mYmd/VBA/blob/master/Haskell_0_declare.bas"/>
     <hyperlink ref="C1" r:id="rId10"/>
-    <hyperlink ref="B227" location="_clone_vh_stdvec" display="clone"/>
-    <hyperlink ref="B247" location="_orderby_vh_stdvec" display="orderby"/>
-    <hyperlink ref="B246" location="_map_vh_stdvec" display="map"/>
-    <hyperlink ref="B245" location="_filter_vh_stdvec" display="filter"/>
-    <hyperlink ref="B291" location="_filter_if" display="filter_if"/>
-    <hyperlink ref="B292" location="_filter_if_not" display="filter_if_not"/>
-    <hyperlink ref="B295" location="_2pipe" display="pipe"/>
-    <hyperlink ref="B296" location="_2pipe_" display="pipe_"/>
-    <hyperlink ref="B250" location="_pipe" display="pipe"/>
-    <hyperlink ref="B251" location="_pipe_" display="pipe_"/>
-    <hyperlink ref="B252" location="_pipe_X" display="x"/>
-    <hyperlink ref="B253" location="_pipe_arrow" display="→"/>
-    <hyperlink ref="B254" location="_pipe_val" display="val"/>
-    <hyperlink ref="B255" location="_pipe_pop" display="pop"/>
-    <hyperlink ref="B256" location="_pipe_swap" display="swap"/>
-    <hyperlink ref="B257" location="_pipe_clone" display="clone"/>
-    <hyperlink ref="B23" location="_self_zipWith" display="self_zipWith"/>
-    <hyperlink ref="B271" location="_p_Trim" display="p_Trim"/>
-    <hyperlink ref="B284" location="_get_unique" display="get_unique"/>
-    <hyperlink ref="B293" location="_p_Not" display="p_Not"/>
-    <hyperlink ref="B294" location="_p_imply" display="p_imply"/>
-    <hyperlink ref="B300" location="_csv2Vector" display="_csv2Vector"/>
-    <hyperlink ref="B301" location="_A_overlap_B" display="A_overlap_B"/>
-    <hyperlink ref="B214" location="_equal_dic" display="equal_dic"/>
-    <hyperlink ref="B215" location="_notEqual_dic" display="notEqual_dic"/>
-    <hyperlink ref="B297" location="____stdVec" display="stdVec"/>
-    <hyperlink ref="B57" location="_p_foldl" display="p_foldl"/>
-    <hyperlink ref="B58" location="_p_foldr" display="p_foldr"/>
-    <hyperlink ref="B61" location="_p_scanl" display="p_scanl"/>
-    <hyperlink ref="B62" location="_p_scanr" display="p_scanr"/>
-    <hyperlink ref="B269" location="_p_Like" display="p_Like"/>
-    <hyperlink ref="B186" location="__push_back" display="push_back"/>
-    <hyperlink ref="B187" location="_push_back_move" display="push_back_move"/>
-    <hyperlink ref="B188" location="_flatten" display="flatten"/>
-    <hyperlink ref="B314" location="_isPrimeNumber" display="isPrimeNumber"/>
-    <hyperlink ref="B315" location="_primeNumbers" display="primeNumbers"/>
-    <hyperlink ref="B86" location="_place_fill" display="place_fill"/>
-    <hyperlink ref="B78" location="_firstArg" display="p_identity"/>
-    <hyperlink ref="B75" location="_assignVar" display="assignVar"/>
-    <hyperlink ref="B96" location="_maskVar" display="maskVar"/>
-    <hyperlink ref="B169" location="_catVs_move" display="catV_move"/>
-    <hyperlink ref="B171" location="_catVs_move" display="catVs_move"/>
-    <hyperlink ref="B244" location="_push_back_arrays" display="push_back_arrays"/>
+    <hyperlink ref="B228" location="_clone_vh_stdvec" display="clone"/>
+    <hyperlink ref="B248" location="_orderby_vh_stdvec" display="orderby"/>
+    <hyperlink ref="B247" location="_map_vh_stdvec" display="map"/>
+    <hyperlink ref="B246" location="_filter_vh_stdvec" display="filter"/>
+    <hyperlink ref="B292" location="_filter_if" display="filter_if"/>
+    <hyperlink ref="B293" location="_filter_if_not" display="filter_if_not"/>
+    <hyperlink ref="B296" location="_2pipe" display="pipe"/>
+    <hyperlink ref="B297" location="_2pipe_" display="pipe_"/>
+    <hyperlink ref="B251" location="_pipe" display="pipe"/>
+    <hyperlink ref="B252" location="_pipe_" display="pipe_"/>
+    <hyperlink ref="B253" location="_pipe_X" display="x"/>
+    <hyperlink ref="B254" location="_pipe_arrow" display="→"/>
+    <hyperlink ref="B255" location="_pipe_val" display="val"/>
+    <hyperlink ref="B256" location="_pipe_pop" display="pop"/>
+    <hyperlink ref="B257" location="_pipe_swap" display="swap"/>
+    <hyperlink ref="B258" location="_pipe_clone" display="clone"/>
+    <hyperlink ref="B24" location="_self_zipWith" display="self_zipWith"/>
+    <hyperlink ref="B272" location="_p_Trim" display="p_Trim"/>
+    <hyperlink ref="B285" location="_get_unique" display="get_unique"/>
+    <hyperlink ref="B294" location="_p_Not" display="p_Not"/>
+    <hyperlink ref="B295" location="_p_imply" display="p_imply"/>
+    <hyperlink ref="B301" location="_csv2Vector" display="_csv2Vector"/>
+    <hyperlink ref="B302" location="_A_overlap_B" display="A_overlap_B"/>
+    <hyperlink ref="B215" location="_equal_dic" display="equal_dic"/>
+    <hyperlink ref="B216" location="_notEqual_dic" display="notEqual_dic"/>
+    <hyperlink ref="B298" location="____stdVec" display="stdVec"/>
+    <hyperlink ref="B58" location="_p_foldl" display="p_foldl"/>
+    <hyperlink ref="B59" location="_p_foldr" display="p_foldr"/>
+    <hyperlink ref="B62" location="_p_scanl" display="p_scanl"/>
+    <hyperlink ref="B63" location="_p_scanr" display="p_scanr"/>
+    <hyperlink ref="B270" location="_p_Like" display="p_Like"/>
+    <hyperlink ref="B187" location="__push_back" display="push_back"/>
+    <hyperlink ref="B188" location="_push_back_move" display="push_back_move"/>
+    <hyperlink ref="B189" location="_flatten" display="flatten"/>
+    <hyperlink ref="B315" location="_isPrimeNumber" display="isPrimeNumber"/>
+    <hyperlink ref="B316" location="_primeNumbers" display="primeNumbers"/>
+    <hyperlink ref="B87" location="_place_fill" display="place_fill"/>
+    <hyperlink ref="B79" location="_firstArg" display="p_identity"/>
+    <hyperlink ref="B76" location="_assignVar" display="assignVar"/>
+    <hyperlink ref="B97" location="_maskVar" display="maskVar"/>
+    <hyperlink ref="B170" location="_catVs_move" display="catV_move"/>
+    <hyperlink ref="B172" location="_catVs_move" display="catVs_move"/>
+    <hyperlink ref="B245" location="_push_back_arrays" display="push_back_arrays"/>
     <hyperlink ref="B18" location="_find_imple" display="_find_imple"/>
-    <hyperlink ref="B216" location="_binary_less" display="binary_less"/>
-    <hyperlink ref="B217" location="_binary_less_dic" display="binary_less_dic"/>
-    <hyperlink ref="B218" location="_text_less" display="text_less"/>
-    <hyperlink ref="B219" location="_text_less_dic" display="text_less_dic"/>
-    <hyperlink ref="B197" location="_lower_bound_" display="lower_bound_"/>
-    <hyperlink ref="B176" location="_cross_zip" display="cross_zip"/>
-    <hyperlink ref="B181" location="_unzipR" display="unzipR"/>
-    <hyperlink ref="B182" location="_unzipC" display="unzipC"/>
-    <hyperlink ref="B178" location="_cross_zip" display="unzip"/>
+    <hyperlink ref="B217" location="_binary_less" display="binary_less"/>
+    <hyperlink ref="B218" location="_binary_less_dic" display="binary_less_dic"/>
+    <hyperlink ref="B219" location="_text_less" display="text_less"/>
+    <hyperlink ref="B220" location="_text_less_dic" display="text_less_dic"/>
+    <hyperlink ref="B198" location="_lower_bound_" display="lower_bound_"/>
+    <hyperlink ref="B177" location="_cross_zip" display="cross_zip"/>
+    <hyperlink ref="B182" location="_unzipR" display="unzipR"/>
+    <hyperlink ref="B183" location="_unzipC" display="unzipC"/>
+    <hyperlink ref="B179" location="_cross_zip" display="unzip"/>
+    <hyperlink ref="B19" location="_find_pred_Vv" display="find_pred_Vv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -35406,7 +35511,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -36369,207 +36474,267 @@
     <row r="174" spans="1:2">
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1">
+    <row r="175" spans="1:2">
       <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1">
       <c r="B176" s="15" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="15" customHeight="1">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" customHeight="1">
       <c r="B177" s="15" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" ht="15" customHeight="1">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" customHeight="1">
       <c r="B178" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="15" customHeight="1">
+    <row r="179" spans="1:2" ht="15" customHeight="1">
       <c r="B179" s="4" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" customHeight="1">
+      <c r="B180" s="52" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="8.25" customHeight="1">
+      <c r="B181" s="50"/>
+    </row>
+    <row r="182" spans="1:2" ht="15" customHeight="1">
+      <c r="A182" s="2"/>
+      <c r="B182" s="50" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" customHeight="1">
+      <c r="A183" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" s="50" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" customHeight="1">
+      <c r="A184" s="21"/>
+      <c r="B184" s="51" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" customHeight="1">
+      <c r="A185" s="21"/>
+      <c r="B185" s="50" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" customHeight="1">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" ht="15" customHeight="1">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" ht="15" customHeight="1">
+      <c r="B188" s="15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" customHeight="1">
+      <c r="B189" s="15" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" customHeight="1">
+      <c r="B190" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" customHeight="1">
+      <c r="B191" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="15" customHeight="1">
-      <c r="B180" s="52" t="s">
+    <row r="192" spans="1:2" ht="15" customHeight="1">
+      <c r="B192" s="52" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" ht="8.25" customHeight="1">
-      <c r="B181" s="50"/>
-    </row>
-    <row r="182" spans="2:2" ht="15" customHeight="1">
-      <c r="B182" s="58" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="2:2" ht="15" customHeight="1">
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="2:2" ht="15" customHeight="1">
-      <c r="B185" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" ht="15" customHeight="1">
-      <c r="B186" s="15" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" ht="15" customHeight="1">
-      <c r="B187" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" ht="15" customHeight="1">
-      <c r="B188" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="15" customHeight="1">
-      <c r="B189" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" ht="15" customHeight="1">
-      <c r="B190" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" ht="15" customHeight="1">
-      <c r="B191" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" ht="15" customHeight="1">
-      <c r="B192" s="52" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="8.25" customHeight="1">
       <c r="B193" s="50"/>
     </row>
     <row r="194" spans="1:2" ht="15" customHeight="1">
-      <c r="A194" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="B194" s="58" t="s">
-        <v>963</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" ht="15" customHeight="1">
       <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" ht="15" customHeight="1">
       <c r="B197" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" customHeight="1">
+      <c r="B198" s="15" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" customHeight="1">
+      <c r="B199" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" customHeight="1">
+      <c r="B200" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" customHeight="1">
+      <c r="B201" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" customHeight="1">
+      <c r="B202" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" customHeight="1">
+      <c r="B203" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" customHeight="1">
+      <c r="B204" s="52" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="8.25" customHeight="1">
+      <c r="B205" s="50"/>
+    </row>
+    <row r="206" spans="1:2" ht="15" customHeight="1">
+      <c r="A206" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B206" s="58" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" ht="15" customHeight="1">
+      <c r="B209" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1">
-      <c r="B198" s="56" t="s">
+    <row r="210" spans="2:2" ht="15" customHeight="1">
+      <c r="B210" s="56" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="8.25" customHeight="1">
-      <c r="B199" s="50"/>
-    </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1">
-      <c r="B200" s="59" t="s">
+    <row r="211" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B211" s="50"/>
+    </row>
+    <row r="212" spans="2:2" ht="15" customHeight="1">
+      <c r="B212" s="59" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1">
-      <c r="B201" s="59" t="s">
+    <row r="213" spans="2:2" ht="15" customHeight="1">
+      <c r="B213" s="59" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1">
-      <c r="B202" s="59" t="s">
+    <row r="214" spans="2:2" ht="15" customHeight="1">
+      <c r="B214" s="59" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1">
-      <c r="B203" s="59" t="s">
+    <row r="215" spans="2:2" ht="15" customHeight="1">
+      <c r="B215" s="59" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1">
-      <c r="B206" s="15" t="s">
+    <row r="216" spans="2:2">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" ht="15" customHeight="1">
+      <c r="B218" s="15" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1">
-      <c r="B207" s="56" t="s">
+    <row r="219" spans="2:2" ht="15" customHeight="1">
+      <c r="B219" s="56" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="8.25" customHeight="1">
-      <c r="B208" s="50"/>
-    </row>
-    <row r="209" spans="2:2" ht="15" customHeight="1">
-      <c r="B209" s="59" t="s">
+    <row r="220" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B220" s="50"/>
+    </row>
+    <row r="221" spans="2:2" ht="15" customHeight="1">
+      <c r="B221" s="59" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="128" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="128" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="129" t="s">
+    <row r="225" spans="2:2">
+      <c r="B225" s="129" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="129" t="s">
+    <row r="226" spans="2:2">
+      <c r="B226" s="129" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="130" t="s">
+    <row r="227" spans="2:2">
+      <c r="B227" s="130" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="131"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="131" t="s">
+    <row r="228" spans="2:2">
+      <c r="B228" s="131"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="131" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="132" t="s">
+    <row r="230" spans="2:2">
+      <c r="B230" s="132" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="133" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" s="133" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="132" t="s">
+    <row r="232" spans="2:2">
+      <c r="B232" s="132" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="133" t="s">
+    <row r="233" spans="2:2">
+      <c r="B233" s="133" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -36585,11 +36750,12 @@
     <hyperlink ref="A1" location="_DLL_Declare" display="戻る"/>
     <hyperlink ref="B164" location="_sortIndex" display="→sortIndex"/>
     <hyperlink ref="B173" location="_find_pred" display="_find_pred"/>
-    <hyperlink ref="B194" location="_repeat_while" display="_repeat_while"/>
+    <hyperlink ref="B206" location="_repeat_while" display="_repeat_while"/>
     <hyperlink ref="A141" location="_DLL_Declare" display="戻る"/>
     <hyperlink ref="A161" location="_DLL_Declare" display="戻る"/>
-    <hyperlink ref="A194" location="_DLL_Declare" display="戻る"/>
-    <hyperlink ref="B182" location="_find_best_pred" display="→find_best_pred"/>
+    <hyperlink ref="A206" location="_DLL_Declare" display="戻る"/>
+    <hyperlink ref="B194" location="_find_best_pred" display="→find_best_pred"/>
+    <hyperlink ref="A183" location="_DLL_Declare" display="戻る"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
